--- a/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>SIM</t>
   </si>
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1912700</v>
+        <v>1605900</v>
       </c>
       <c r="E8" s="3">
-        <v>1538600</v>
+        <v>1291800</v>
       </c>
       <c r="F8" s="3">
-        <v>1475100</v>
+        <v>1238500</v>
       </c>
       <c r="G8" s="3">
-        <v>1312100</v>
+        <v>1101700</v>
       </c>
       <c r="H8" s="3">
-        <v>1438300</v>
+        <v>1207600</v>
       </c>
       <c r="I8" s="3">
-        <v>1306400</v>
+        <v>1096800</v>
       </c>
       <c r="J8" s="3">
-        <v>1582800</v>
+        <v>1328900</v>
       </c>
       <c r="K8" s="3">
         <v>1271100</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1638500</v>
+        <v>1375700</v>
       </c>
       <c r="E9" s="3">
-        <v>1286300</v>
+        <v>1080000</v>
       </c>
       <c r="F9" s="3">
-        <v>1221000</v>
+        <v>1025100</v>
       </c>
       <c r="G9" s="3">
-        <v>1238200</v>
+        <v>1039600</v>
       </c>
       <c r="H9" s="3">
-        <v>1366600</v>
+        <v>1147400</v>
       </c>
       <c r="I9" s="3">
-        <v>1201400</v>
+        <v>1008700</v>
       </c>
       <c r="J9" s="3">
-        <v>1391700</v>
+        <v>1168500</v>
       </c>
       <c r="K9" s="3">
         <v>1150700</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>274200</v>
+        <v>230200</v>
       </c>
       <c r="E10" s="3">
-        <v>252300</v>
+        <v>211800</v>
       </c>
       <c r="F10" s="3">
-        <v>254100</v>
+        <v>213300</v>
       </c>
       <c r="G10" s="3">
-        <v>73900</v>
+        <v>62100</v>
       </c>
       <c r="H10" s="3">
-        <v>71600</v>
+        <v>60200</v>
       </c>
       <c r="I10" s="3">
-        <v>105000</v>
+        <v>88200</v>
       </c>
       <c r="J10" s="3">
-        <v>191100</v>
+        <v>160400</v>
       </c>
       <c r="K10" s="3">
         <v>120300</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>111100</v>
+        <v>93300</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -915,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="J14" s="3">
-        <v>-11600</v>
+        <v>-9700</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1695600</v>
+        <v>1423600</v>
       </c>
       <c r="E17" s="3">
-        <v>1352400</v>
+        <v>1135400</v>
       </c>
       <c r="F17" s="3">
-        <v>1291400</v>
+        <v>1084300</v>
       </c>
       <c r="G17" s="3">
-        <v>1424800</v>
+        <v>1196300</v>
       </c>
       <c r="H17" s="3">
-        <v>1427400</v>
+        <v>1198400</v>
       </c>
       <c r="I17" s="3">
-        <v>1264500</v>
+        <v>1061600</v>
       </c>
       <c r="J17" s="3">
-        <v>1447900</v>
+        <v>1215600</v>
       </c>
       <c r="K17" s="3">
         <v>1210300</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>217100</v>
+        <v>182300</v>
       </c>
       <c r="E18" s="3">
-        <v>186200</v>
+        <v>156400</v>
       </c>
       <c r="F18" s="3">
-        <v>183700</v>
+        <v>154200</v>
       </c>
       <c r="G18" s="3">
-        <v>-112700</v>
+        <v>-94600</v>
       </c>
       <c r="H18" s="3">
-        <v>10900</v>
+        <v>9200</v>
       </c>
       <c r="I18" s="3">
-        <v>42000</v>
+        <v>35200</v>
       </c>
       <c r="J18" s="3">
-        <v>134900</v>
+        <v>113300</v>
       </c>
       <c r="K18" s="3">
         <v>60800</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2600</v>
+        <v>-2200</v>
       </c>
       <c r="E20" s="3">
-        <v>-32200</v>
+        <v>-27000</v>
       </c>
       <c r="F20" s="3">
-        <v>101000</v>
+        <v>84800</v>
       </c>
       <c r="G20" s="3">
-        <v>-18700</v>
+        <v>-15700</v>
       </c>
       <c r="H20" s="3">
-        <v>26800</v>
+        <v>22500</v>
       </c>
       <c r="I20" s="3">
-        <v>-2500</v>
+        <v>-2100</v>
       </c>
       <c r="J20" s="3">
-        <v>-26100</v>
+        <v>-21900</v>
       </c>
       <c r="K20" s="3">
         <v>-19700</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>274400</v>
+        <v>230000</v>
       </c>
       <c r="E21" s="3">
-        <v>232900</v>
+        <v>195100</v>
       </c>
       <c r="F21" s="3">
-        <v>361500</v>
+        <v>303100</v>
       </c>
       <c r="G21" s="3">
-        <v>-63500</v>
+        <v>-53700</v>
       </c>
       <c r="H21" s="3">
-        <v>97800</v>
+        <v>81800</v>
       </c>
       <c r="I21" s="3">
-        <v>96100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>163300</v>
+        <v>80400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E22" s="3">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="G22" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="H22" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I22" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="J22" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K22" s="3">
         <v>600</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>213600</v>
+        <v>179400</v>
       </c>
       <c r="E23" s="3">
-        <v>151100</v>
+        <v>126900</v>
       </c>
       <c r="F23" s="3">
-        <v>282500</v>
+        <v>237200</v>
       </c>
       <c r="G23" s="3">
-        <v>-133500</v>
+        <v>-112100</v>
       </c>
       <c r="H23" s="3">
-        <v>36500</v>
+        <v>30600</v>
       </c>
       <c r="I23" s="3">
-        <v>38000</v>
+        <v>31900</v>
       </c>
       <c r="J23" s="3">
-        <v>107600</v>
+        <v>90400</v>
       </c>
       <c r="K23" s="3">
         <v>40400</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>36200</v>
+        <v>30400</v>
       </c>
       <c r="E24" s="3">
-        <v>58900</v>
+        <v>49400</v>
       </c>
       <c r="F24" s="3">
-        <v>49600</v>
+        <v>41700</v>
       </c>
       <c r="G24" s="3">
-        <v>41300</v>
+        <v>34700</v>
       </c>
       <c r="H24" s="3">
-        <v>8700</v>
+        <v>7300</v>
       </c>
       <c r="I24" s="3">
-        <v>-15100</v>
+        <v>-12700</v>
       </c>
       <c r="J24" s="3">
-        <v>2900</v>
+        <v>2400</v>
       </c>
       <c r="K24" s="3">
         <v>5800</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>177400</v>
+        <v>149000</v>
       </c>
       <c r="E26" s="3">
-        <v>92300</v>
+        <v>77500</v>
       </c>
       <c r="F26" s="3">
-        <v>232800</v>
+        <v>195500</v>
       </c>
       <c r="G26" s="3">
-        <v>-174800</v>
+        <v>-146800</v>
       </c>
       <c r="H26" s="3">
-        <v>27800</v>
+        <v>23300</v>
       </c>
       <c r="I26" s="3">
-        <v>53100</v>
+        <v>44500</v>
       </c>
       <c r="J26" s="3">
-        <v>104700</v>
+        <v>87900</v>
       </c>
       <c r="K26" s="3">
         <v>34600</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>188500</v>
+        <v>158300</v>
       </c>
       <c r="E27" s="3">
-        <v>92300</v>
+        <v>77500</v>
       </c>
       <c r="F27" s="3">
-        <v>154700</v>
+        <v>129800</v>
       </c>
       <c r="G27" s="3">
-        <v>-65100</v>
+        <v>-54700</v>
       </c>
       <c r="H27" s="3">
-        <v>64500</v>
+        <v>54200</v>
       </c>
       <c r="I27" s="3">
-        <v>81300</v>
+        <v>68300</v>
       </c>
       <c r="J27" s="3">
-        <v>111000</v>
+        <v>93200</v>
       </c>
       <c r="K27" s="3">
         <v>29100</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="E32" s="3">
-        <v>32200</v>
+        <v>27000</v>
       </c>
       <c r="F32" s="3">
-        <v>-101000</v>
+        <v>-84800</v>
       </c>
       <c r="G32" s="3">
-        <v>18700</v>
+        <v>15700</v>
       </c>
       <c r="H32" s="3">
-        <v>-26800</v>
+        <v>-22500</v>
       </c>
       <c r="I32" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="J32" s="3">
-        <v>26100</v>
+        <v>21900</v>
       </c>
       <c r="K32" s="3">
         <v>19700</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>188500</v>
+        <v>158300</v>
       </c>
       <c r="E33" s="3">
-        <v>92300</v>
+        <v>77500</v>
       </c>
       <c r="F33" s="3">
-        <v>154700</v>
+        <v>129800</v>
       </c>
       <c r="G33" s="3">
-        <v>-65100</v>
+        <v>-54700</v>
       </c>
       <c r="H33" s="3">
-        <v>64500</v>
+        <v>54200</v>
       </c>
       <c r="I33" s="3">
-        <v>81300</v>
+        <v>68300</v>
       </c>
       <c r="J33" s="3">
-        <v>111000</v>
+        <v>93200</v>
       </c>
       <c r="K33" s="3">
         <v>29100</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>188500</v>
+        <v>158300</v>
       </c>
       <c r="E35" s="3">
-        <v>92300</v>
+        <v>77500</v>
       </c>
       <c r="F35" s="3">
-        <v>154700</v>
+        <v>129800</v>
       </c>
       <c r="G35" s="3">
-        <v>-65100</v>
+        <v>-54700</v>
       </c>
       <c r="H35" s="3">
-        <v>64500</v>
+        <v>54200</v>
       </c>
       <c r="I35" s="3">
-        <v>81300</v>
+        <v>68300</v>
       </c>
       <c r="J35" s="3">
-        <v>111000</v>
+        <v>93200</v>
       </c>
       <c r="K35" s="3">
         <v>29100</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>374600</v>
+        <v>315200</v>
       </c>
       <c r="E41" s="3">
-        <v>777100</v>
+        <v>653900</v>
       </c>
       <c r="F41" s="3">
-        <v>427000</v>
+        <v>359300</v>
       </c>
       <c r="G41" s="3">
-        <v>333700</v>
+        <v>280800</v>
       </c>
       <c r="H41" s="3">
-        <v>375500</v>
+        <v>315900</v>
       </c>
       <c r="I41" s="3">
-        <v>374500</v>
+        <v>315100</v>
       </c>
       <c r="J41" s="3">
-        <v>434400</v>
+        <v>365500</v>
       </c>
       <c r="K41" s="3">
         <v>338100</v>
@@ -1685,19 +1685,19 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9100</v>
+        <v>7600</v>
       </c>
       <c r="E42" s="3">
-        <v>9300</v>
+        <v>7800</v>
       </c>
       <c r="F42" s="3">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="G42" s="3">
-        <v>20100</v>
+        <v>16900</v>
       </c>
       <c r="H42" s="3">
-        <v>16400</v>
+        <v>13800</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>822400</v>
+        <v>692000</v>
       </c>
       <c r="E43" s="3">
-        <v>1068600</v>
+        <v>899100</v>
       </c>
       <c r="F43" s="3">
-        <v>558500</v>
+        <v>469900</v>
       </c>
       <c r="G43" s="3">
-        <v>211900</v>
+        <v>178300</v>
       </c>
       <c r="H43" s="3">
-        <v>198500</v>
+        <v>167000</v>
       </c>
       <c r="I43" s="3">
-        <v>166200</v>
+        <v>139900</v>
       </c>
       <c r="J43" s="3">
-        <v>147000</v>
+        <v>123700</v>
       </c>
       <c r="K43" s="3">
         <v>191900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>732200</v>
+        <v>616100</v>
       </c>
       <c r="E44" s="3">
-        <v>887100</v>
+        <v>746400</v>
       </c>
       <c r="F44" s="3">
-        <v>534400</v>
+        <v>449600</v>
       </c>
       <c r="G44" s="3">
-        <v>327600</v>
+        <v>275700</v>
       </c>
       <c r="H44" s="3">
-        <v>349600</v>
+        <v>294200</v>
       </c>
       <c r="I44" s="3">
-        <v>635900</v>
+        <v>535100</v>
       </c>
       <c r="J44" s="3">
-        <v>334200</v>
+        <v>281200</v>
       </c>
       <c r="K44" s="3">
         <v>297800</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>85600</v>
+        <v>72000</v>
       </c>
       <c r="E45" s="3">
-        <v>50100</v>
+        <v>42200</v>
       </c>
       <c r="F45" s="3">
-        <v>41100</v>
+        <v>34600</v>
       </c>
       <c r="G45" s="3">
-        <v>17000</v>
+        <v>14300</v>
       </c>
       <c r="H45" s="3">
-        <v>7600</v>
+        <v>6400</v>
       </c>
       <c r="I45" s="3">
-        <v>19900</v>
+        <v>16700</v>
       </c>
       <c r="J45" s="3">
-        <v>13000</v>
+        <v>10900</v>
       </c>
       <c r="K45" s="3">
         <v>10000</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1489200</v>
+        <v>1253100</v>
       </c>
       <c r="E46" s="3">
-        <v>1399700</v>
+        <v>1177800</v>
       </c>
       <c r="F46" s="3">
-        <v>1233400</v>
+        <v>1037900</v>
       </c>
       <c r="G46" s="3">
-        <v>910300</v>
+        <v>765900</v>
       </c>
       <c r="H46" s="3">
-        <v>947500</v>
+        <v>797200</v>
       </c>
       <c r="I46" s="3">
-        <v>868600</v>
+        <v>730900</v>
       </c>
       <c r="J46" s="3">
-        <v>928500</v>
+        <v>781300</v>
       </c>
       <c r="K46" s="3">
         <v>837800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1819600</v>
+        <v>1531100</v>
       </c>
       <c r="E48" s="3">
-        <v>1687300</v>
+        <v>1419800</v>
       </c>
       <c r="F48" s="3">
-        <v>1553700</v>
+        <v>1307400</v>
       </c>
       <c r="G48" s="3">
-        <v>596600</v>
+        <v>502000</v>
       </c>
       <c r="H48" s="3">
-        <v>730100</v>
+        <v>614400</v>
       </c>
       <c r="I48" s="3">
-        <v>110800</v>
+        <v>93200</v>
       </c>
       <c r="J48" s="3">
-        <v>524100</v>
+        <v>441000</v>
       </c>
       <c r="K48" s="3">
         <v>483400</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>246600</v>
+        <v>207500</v>
       </c>
       <c r="E49" s="3">
-        <v>265000</v>
+        <v>223000</v>
       </c>
       <c r="F49" s="3">
-        <v>272800</v>
+        <v>229500</v>
       </c>
       <c r="G49" s="3">
-        <v>142100</v>
+        <v>119500</v>
       </c>
       <c r="H49" s="3">
-        <v>153400</v>
+        <v>129100</v>
       </c>
       <c r="I49" s="3">
-        <v>338700</v>
+        <v>285000</v>
       </c>
       <c r="J49" s="3">
-        <v>179900</v>
+        <v>151300</v>
       </c>
       <c r="K49" s="3">
         <v>189400</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>61500</v>
+        <v>51800</v>
       </c>
       <c r="E52" s="3">
-        <v>65400</v>
+        <v>55100</v>
       </c>
       <c r="F52" s="3">
-        <v>85600</v>
+        <v>72000</v>
       </c>
       <c r="G52" s="3">
-        <v>79600</v>
+        <v>67000</v>
       </c>
       <c r="H52" s="3">
-        <v>93500</v>
+        <v>78600</v>
       </c>
       <c r="I52" s="3">
-        <v>97000</v>
+        <v>81600</v>
       </c>
       <c r="J52" s="3">
-        <v>107500</v>
+        <v>90500</v>
       </c>
       <c r="K52" s="3">
         <v>101000</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2583800</v>
+        <v>2174100</v>
       </c>
       <c r="E54" s="3">
-        <v>2441300</v>
+        <v>2054200</v>
       </c>
       <c r="F54" s="3">
-        <v>2232300</v>
+        <v>1878400</v>
       </c>
       <c r="G54" s="3">
-        <v>1728600</v>
+        <v>1454500</v>
       </c>
       <c r="H54" s="3">
-        <v>1924400</v>
+        <v>1619300</v>
       </c>
       <c r="I54" s="3">
-        <v>1784100</v>
+        <v>1501300</v>
       </c>
       <c r="J54" s="3">
-        <v>1740000</v>
+        <v>1464100</v>
       </c>
       <c r="K54" s="3">
         <v>1609500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>235400</v>
+        <v>198100</v>
       </c>
       <c r="E57" s="3">
-        <v>508500</v>
+        <v>427900</v>
       </c>
       <c r="F57" s="3">
-        <v>151600</v>
+        <v>127600</v>
       </c>
       <c r="G57" s="3">
-        <v>166300</v>
+        <v>140000</v>
       </c>
       <c r="H57" s="3">
-        <v>196000</v>
+        <v>165000</v>
       </c>
       <c r="I57" s="3">
-        <v>161300</v>
+        <v>135800</v>
       </c>
       <c r="J57" s="3">
-        <v>160400</v>
+        <v>135000</v>
       </c>
       <c r="K57" s="3">
         <v>155200</v>
@@ -2186,13 +2186,13 @@
         <v>300</v>
       </c>
       <c r="G58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>40300</v>
+        <v>33900</v>
       </c>
       <c r="I58" s="3">
-        <v>76500</v>
+        <v>64400</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>341000</v>
+        <v>287000</v>
       </c>
       <c r="E59" s="3">
-        <v>266800</v>
+        <v>224500</v>
       </c>
       <c r="F59" s="3">
-        <v>197500</v>
+        <v>166200</v>
       </c>
       <c r="G59" s="3">
-        <v>132900</v>
+        <v>111900</v>
       </c>
       <c r="H59" s="3">
-        <v>75700</v>
+        <v>63700</v>
       </c>
       <c r="I59" s="3">
-        <v>82800</v>
+        <v>69700</v>
       </c>
       <c r="J59" s="3">
-        <v>39700</v>
+        <v>33400</v>
       </c>
       <c r="K59" s="3">
         <v>42300</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>464600</v>
+        <v>391000</v>
       </c>
       <c r="E60" s="3">
-        <v>388000</v>
+        <v>326400</v>
       </c>
       <c r="F60" s="3">
-        <v>295900</v>
+        <v>249000</v>
       </c>
       <c r="G60" s="3">
-        <v>299600</v>
+        <v>252100</v>
       </c>
       <c r="H60" s="3">
-        <v>312100</v>
+        <v>262600</v>
       </c>
       <c r="I60" s="3">
-        <v>252200</v>
+        <v>212200</v>
       </c>
       <c r="J60" s="3">
-        <v>200300</v>
+        <v>168600</v>
       </c>
       <c r="K60" s="3">
         <v>197700</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>233300</v>
+        <v>196300</v>
       </c>
       <c r="E62" s="3">
-        <v>262600</v>
+        <v>221000</v>
       </c>
       <c r="F62" s="3">
-        <v>183200</v>
+        <v>154200</v>
       </c>
       <c r="G62" s="3">
-        <v>82300</v>
+        <v>69300</v>
       </c>
       <c r="H62" s="3">
-        <v>123000</v>
+        <v>103500</v>
       </c>
       <c r="I62" s="3">
-        <v>123300</v>
+        <v>103800</v>
       </c>
       <c r="J62" s="3">
-        <v>163600</v>
+        <v>137700</v>
       </c>
       <c r="K62" s="3">
         <v>163700</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>680600</v>
+        <v>572700</v>
       </c>
       <c r="E66" s="3">
-        <v>606200</v>
+        <v>510100</v>
       </c>
       <c r="F66" s="3">
-        <v>446300</v>
+        <v>375500</v>
       </c>
       <c r="G66" s="3">
-        <v>304000</v>
+        <v>255800</v>
       </c>
       <c r="H66" s="3">
-        <v>474800</v>
+        <v>399500</v>
       </c>
       <c r="I66" s="3">
-        <v>446700</v>
+        <v>375900</v>
       </c>
       <c r="J66" s="3">
-        <v>463200</v>
+        <v>389800</v>
       </c>
       <c r="K66" s="3">
         <v>473400</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1307400</v>
+        <v>1100100</v>
       </c>
       <c r="E72" s="3">
-        <v>1206600</v>
+        <v>1015300</v>
       </c>
       <c r="F72" s="3">
-        <v>1128000</v>
+        <v>949200</v>
       </c>
       <c r="G72" s="3">
-        <v>950300</v>
+        <v>799600</v>
       </c>
       <c r="H72" s="3">
-        <v>1024500</v>
+        <v>862000</v>
       </c>
       <c r="I72" s="3">
-        <v>1802100</v>
+        <v>1516400</v>
       </c>
       <c r="J72" s="3">
-        <v>893300</v>
+        <v>751600</v>
       </c>
       <c r="K72" s="3">
         <v>754700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1903200</v>
+        <v>1601400</v>
       </c>
       <c r="E76" s="3">
-        <v>1835100</v>
+        <v>1544200</v>
       </c>
       <c r="F76" s="3">
-        <v>1786000</v>
+        <v>1502900</v>
       </c>
       <c r="G76" s="3">
-        <v>1424600</v>
+        <v>1198700</v>
       </c>
       <c r="H76" s="3">
-        <v>1449600</v>
+        <v>1219800</v>
       </c>
       <c r="I76" s="3">
-        <v>1337400</v>
+        <v>1125300</v>
       </c>
       <c r="J76" s="3">
-        <v>1276800</v>
+        <v>1074300</v>
       </c>
       <c r="K76" s="3">
         <v>1136100</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>188500</v>
+        <v>158300</v>
       </c>
       <c r="E81" s="3">
-        <v>92300</v>
+        <v>77500</v>
       </c>
       <c r="F81" s="3">
-        <v>154700</v>
+        <v>129800</v>
       </c>
       <c r="G81" s="3">
-        <v>-65100</v>
+        <v>-54700</v>
       </c>
       <c r="H81" s="3">
-        <v>64500</v>
+        <v>54200</v>
       </c>
       <c r="I81" s="3">
-        <v>81300</v>
+        <v>68300</v>
       </c>
       <c r="J81" s="3">
-        <v>111000</v>
+        <v>93200</v>
       </c>
       <c r="K81" s="3">
         <v>29100</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>59600</v>
+        <v>50100</v>
       </c>
       <c r="E83" s="3">
-        <v>78600</v>
+        <v>66000</v>
       </c>
       <c r="F83" s="3">
-        <v>76600</v>
+        <v>64300</v>
       </c>
       <c r="G83" s="3">
-        <v>67600</v>
+        <v>56800</v>
       </c>
       <c r="H83" s="3">
-        <v>59900</v>
+        <v>50300</v>
       </c>
       <c r="I83" s="3">
-        <v>56400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>54300</v>
+        <v>47400</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>170500</v>
+        <v>143200</v>
       </c>
       <c r="E89" s="3">
-        <v>148600</v>
+        <v>124800</v>
       </c>
       <c r="F89" s="3">
-        <v>183800</v>
+        <v>154300</v>
       </c>
       <c r="G89" s="3">
-        <v>-20500</v>
+        <v>-17200</v>
       </c>
       <c r="H89" s="3">
-        <v>73400</v>
+        <v>61700</v>
       </c>
       <c r="I89" s="3">
-        <v>110000</v>
+        <v>92300</v>
       </c>
       <c r="J89" s="3">
-        <v>195900</v>
+        <v>164500</v>
       </c>
       <c r="K89" s="3">
         <v>152800</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-106900</v>
+        <v>-89800</v>
       </c>
       <c r="E91" s="3">
-        <v>-162900</v>
+        <v>-136800</v>
       </c>
       <c r="F91" s="3">
-        <v>-166200</v>
+        <v>-139500</v>
       </c>
       <c r="G91" s="3">
-        <v>-34700</v>
+        <v>-29200</v>
       </c>
       <c r="H91" s="3">
-        <v>-99600</v>
+        <v>-83600</v>
       </c>
       <c r="I91" s="3">
-        <v>-170400</v>
+        <v>-143000</v>
       </c>
       <c r="J91" s="3">
-        <v>-69900</v>
+        <v>-58700</v>
       </c>
       <c r="K91" s="3">
         <v>-22300</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-41700</v>
+        <v>-35000</v>
       </c>
       <c r="E94" s="3">
-        <v>-145100</v>
+        <v>-121800</v>
       </c>
       <c r="F94" s="3">
-        <v>-169700</v>
+        <v>-142500</v>
       </c>
       <c r="G94" s="3">
-        <v>-35100</v>
+        <v>-29500</v>
       </c>
       <c r="H94" s="3">
-        <v>-110500</v>
+        <v>-92700</v>
       </c>
       <c r="I94" s="3">
-        <v>-158000</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-80800</v>
+        <v>-132700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-141600</v>
+        <v>-118900</v>
       </c>
       <c r="E100" s="3">
-        <v>-20100</v>
+        <v>-16800</v>
       </c>
       <c r="F100" s="3">
-        <v>48100</v>
+        <v>40400</v>
       </c>
       <c r="G100" s="3">
-        <v>-15300</v>
+        <v>-12800</v>
       </c>
       <c r="H100" s="3">
-        <v>-2600</v>
+        <v>-2200</v>
       </c>
       <c r="I100" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-1200</v>
+        <v>-11700</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E101" s="3">
-        <v>-1300</v>
+        <v>-1100</v>
       </c>
       <c r="F101" s="3">
-        <v>8100</v>
+        <v>6800</v>
       </c>
       <c r="G101" s="3">
-        <v>29100</v>
+        <v>27600</v>
       </c>
       <c r="H101" s="3">
-        <v>40600</v>
+        <v>34100</v>
       </c>
       <c r="I101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-30000</v>
+        <v>1700</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-11600</v>
+        <v>-9700</v>
       </c>
       <c r="E102" s="3">
-        <v>-17800</v>
+        <v>-15000</v>
       </c>
       <c r="F102" s="3">
-        <v>70300</v>
+        <v>59100</v>
       </c>
       <c r="G102" s="3">
-        <v>-41800</v>
+        <v>-31900</v>
       </c>
       <c r="H102" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="I102" s="3">
-        <v>-59900</v>
+        <v>-50300</v>
       </c>
       <c r="J102" s="3">
-        <v>83900</v>
+        <v>70500</v>
       </c>
       <c r="K102" s="3">
         <v>163000</v>

--- a/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>SIM</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40543</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1605900</v>
+        <v>1558200</v>
       </c>
       <c r="E8" s="3">
-        <v>1291800</v>
+        <v>1626900</v>
       </c>
       <c r="F8" s="3">
-        <v>1238500</v>
+        <v>1308700</v>
       </c>
       <c r="G8" s="3">
-        <v>1101700</v>
+        <v>1254700</v>
       </c>
       <c r="H8" s="3">
-        <v>1207600</v>
+        <v>1116100</v>
       </c>
       <c r="I8" s="3">
-        <v>1096800</v>
+        <v>1223400</v>
       </c>
       <c r="J8" s="3">
+        <v>1111200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1328900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1271100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1305000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1375700</v>
+        <v>1371100</v>
       </c>
       <c r="E9" s="3">
-        <v>1080000</v>
+        <v>1393700</v>
       </c>
       <c r="F9" s="3">
-        <v>1025100</v>
+        <v>1094200</v>
       </c>
       <c r="G9" s="3">
-        <v>1039600</v>
+        <v>1038600</v>
       </c>
       <c r="H9" s="3">
-        <v>1147400</v>
+        <v>1053200</v>
       </c>
       <c r="I9" s="3">
-        <v>1008700</v>
+        <v>1162400</v>
       </c>
       <c r="J9" s="3">
+        <v>1021900</v>
+      </c>
+      <c r="K9" s="3">
         <v>1168500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1150700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1181400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>230200</v>
+        <v>187100</v>
       </c>
       <c r="E10" s="3">
-        <v>211800</v>
+        <v>233200</v>
       </c>
       <c r="F10" s="3">
-        <v>213300</v>
+        <v>214600</v>
       </c>
       <c r="G10" s="3">
-        <v>62100</v>
+        <v>216100</v>
       </c>
       <c r="H10" s="3">
-        <v>60200</v>
+        <v>62900</v>
       </c>
       <c r="I10" s="3">
-        <v>88200</v>
+        <v>60900</v>
       </c>
       <c r="J10" s="3">
+        <v>89300</v>
+      </c>
+      <c r="K10" s="3">
         <v>160400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>120300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>123600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,9 +906,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,30 +921,33 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>93300</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>94500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>-9700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -956,9 +978,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1423600</v>
+        <v>1452000</v>
       </c>
       <c r="E17" s="3">
-        <v>1135400</v>
+        <v>1442200</v>
       </c>
       <c r="F17" s="3">
-        <v>1084300</v>
+        <v>1150300</v>
       </c>
       <c r="G17" s="3">
-        <v>1196300</v>
+        <v>1098500</v>
       </c>
       <c r="H17" s="3">
-        <v>1198400</v>
+        <v>1212000</v>
       </c>
       <c r="I17" s="3">
-        <v>1061600</v>
+        <v>1214100</v>
       </c>
       <c r="J17" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1215600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1210300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1242600</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>182300</v>
+        <v>106300</v>
       </c>
       <c r="E18" s="3">
-        <v>156400</v>
+        <v>184700</v>
       </c>
       <c r="F18" s="3">
-        <v>154200</v>
+        <v>158400</v>
       </c>
       <c r="G18" s="3">
-        <v>-94600</v>
+        <v>156200</v>
       </c>
       <c r="H18" s="3">
-        <v>9200</v>
+        <v>-95900</v>
       </c>
       <c r="I18" s="3">
-        <v>35200</v>
+        <v>9300</v>
       </c>
       <c r="J18" s="3">
+        <v>35700</v>
+      </c>
+      <c r="K18" s="3">
         <v>113300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>60800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>62400</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,64 +1082,68 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2200</v>
+        <v>-29100</v>
       </c>
       <c r="E20" s="3">
-        <v>-27000</v>
+        <v>7600</v>
       </c>
       <c r="F20" s="3">
-        <v>84800</v>
+        <v>-27400</v>
       </c>
       <c r="G20" s="3">
-        <v>-15700</v>
+        <v>85900</v>
       </c>
       <c r="H20" s="3">
-        <v>22500</v>
+        <v>-15900</v>
       </c>
       <c r="I20" s="3">
+        <v>22800</v>
+      </c>
+      <c r="J20" s="3">
         <v>-2100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20200</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>230000</v>
+        <v>127800</v>
       </c>
       <c r="E21" s="3">
-        <v>195100</v>
+        <v>243100</v>
       </c>
       <c r="F21" s="3">
-        <v>303100</v>
+        <v>198000</v>
       </c>
       <c r="G21" s="3">
-        <v>-53700</v>
+        <v>307400</v>
       </c>
       <c r="H21" s="3">
-        <v>81800</v>
+        <v>-54100</v>
       </c>
       <c r="I21" s="3">
-        <v>80400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
+        <v>83100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>81700</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1115,108 +1151,120 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>700</v>
+        <v>2500</v>
       </c>
       <c r="E22" s="3">
-        <v>2400</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="G22" s="3">
         <v>1800</v>
       </c>
       <c r="H22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>179400</v>
+        <v>74600</v>
       </c>
       <c r="E23" s="3">
-        <v>126900</v>
+        <v>191500</v>
       </c>
       <c r="F23" s="3">
-        <v>237200</v>
+        <v>128600</v>
       </c>
       <c r="G23" s="3">
-        <v>-112100</v>
+        <v>240300</v>
       </c>
       <c r="H23" s="3">
-        <v>30600</v>
+        <v>-113600</v>
       </c>
       <c r="I23" s="3">
-        <v>31900</v>
+        <v>31000</v>
       </c>
       <c r="J23" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K23" s="3">
         <v>90400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>41500</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>30400</v>
+        <v>149400</v>
       </c>
       <c r="E24" s="3">
-        <v>49400</v>
+        <v>34300</v>
       </c>
       <c r="F24" s="3">
-        <v>41700</v>
+        <v>50100</v>
       </c>
       <c r="G24" s="3">
-        <v>34700</v>
+        <v>42200</v>
       </c>
       <c r="H24" s="3">
-        <v>7300</v>
+        <v>35100</v>
       </c>
       <c r="I24" s="3">
-        <v>-12700</v>
+        <v>7400</v>
       </c>
       <c r="J24" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="K24" s="3">
         <v>2400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149000</v>
+        <v>-74800</v>
       </c>
       <c r="E26" s="3">
-        <v>77500</v>
+        <v>157200</v>
       </c>
       <c r="F26" s="3">
-        <v>195500</v>
+        <v>78500</v>
       </c>
       <c r="G26" s="3">
-        <v>-146800</v>
+        <v>198100</v>
       </c>
       <c r="H26" s="3">
-        <v>23300</v>
+        <v>-148700</v>
       </c>
       <c r="I26" s="3">
-        <v>44500</v>
+        <v>23600</v>
       </c>
       <c r="J26" s="3">
+        <v>45100</v>
+      </c>
+      <c r="K26" s="3">
         <v>87900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>35500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>158300</v>
+        <v>-74600</v>
       </c>
       <c r="E27" s="3">
-        <v>77500</v>
+        <v>166600</v>
       </c>
       <c r="F27" s="3">
-        <v>129800</v>
+        <v>78500</v>
       </c>
       <c r="G27" s="3">
-        <v>-54700</v>
+        <v>131500</v>
       </c>
       <c r="H27" s="3">
-        <v>54200</v>
+        <v>-55400</v>
       </c>
       <c r="I27" s="3">
-        <v>68300</v>
+        <v>54900</v>
       </c>
       <c r="J27" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K27" s="3">
         <v>93200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>29800</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2200</v>
+        <v>29100</v>
       </c>
       <c r="E32" s="3">
-        <v>27000</v>
+        <v>-7600</v>
       </c>
       <c r="F32" s="3">
-        <v>-84800</v>
+        <v>27400</v>
       </c>
       <c r="G32" s="3">
-        <v>15700</v>
+        <v>-85900</v>
       </c>
       <c r="H32" s="3">
-        <v>-22500</v>
+        <v>15900</v>
       </c>
       <c r="I32" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="J32" s="3">
         <v>2100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20200</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>158300</v>
+        <v>-74600</v>
       </c>
       <c r="E33" s="3">
-        <v>77500</v>
+        <v>166600</v>
       </c>
       <c r="F33" s="3">
-        <v>129800</v>
+        <v>78500</v>
       </c>
       <c r="G33" s="3">
-        <v>-54700</v>
+        <v>131500</v>
       </c>
       <c r="H33" s="3">
-        <v>54200</v>
+        <v>-55400</v>
       </c>
       <c r="I33" s="3">
-        <v>68300</v>
+        <v>54900</v>
       </c>
       <c r="J33" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K33" s="3">
         <v>93200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>29800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>158300</v>
+        <v>-74600</v>
       </c>
       <c r="E35" s="3">
-        <v>77500</v>
+        <v>166600</v>
       </c>
       <c r="F35" s="3">
-        <v>129800</v>
+        <v>78500</v>
       </c>
       <c r="G35" s="3">
-        <v>-54700</v>
+        <v>131500</v>
       </c>
       <c r="H35" s="3">
-        <v>54200</v>
+        <v>-55400</v>
       </c>
       <c r="I35" s="3">
-        <v>68300</v>
+        <v>54900</v>
       </c>
       <c r="J35" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K35" s="3">
         <v>93200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>29800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40543</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,61 +1731,65 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>315200</v>
+        <v>339600</v>
       </c>
       <c r="E41" s="3">
-        <v>653900</v>
+        <v>318600</v>
       </c>
       <c r="F41" s="3">
-        <v>359300</v>
+        <v>661000</v>
       </c>
       <c r="G41" s="3">
-        <v>280800</v>
+        <v>363200</v>
       </c>
       <c r="H41" s="3">
-        <v>315900</v>
+        <v>283800</v>
       </c>
       <c r="I41" s="3">
-        <v>315100</v>
+        <v>319400</v>
       </c>
       <c r="J41" s="3">
+        <v>318500</v>
+      </c>
+      <c r="K41" s="3">
         <v>365500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>338100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>179700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>7600</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="F42" s="3">
-        <v>3300</v>
+        <v>7900</v>
       </c>
       <c r="G42" s="3">
-        <v>16900</v>
+        <v>3400</v>
       </c>
       <c r="H42" s="3">
-        <v>13800</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
+        <v>17100</v>
+      </c>
+      <c r="I42" s="3">
+        <v>13900</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1711,164 +1800,179 @@
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>692000</v>
+        <v>647600</v>
       </c>
       <c r="E43" s="3">
-        <v>899100</v>
+        <v>726200</v>
       </c>
       <c r="F43" s="3">
-        <v>469900</v>
+        <v>908900</v>
       </c>
       <c r="G43" s="3">
-        <v>178300</v>
+        <v>475000</v>
       </c>
       <c r="H43" s="3">
-        <v>167000</v>
+        <v>180200</v>
       </c>
       <c r="I43" s="3">
-        <v>139900</v>
+        <v>168800</v>
       </c>
       <c r="J43" s="3">
+        <v>141400</v>
+      </c>
+      <c r="K43" s="3">
         <v>123700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>191900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>176400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>616100</v>
+        <v>534300</v>
       </c>
       <c r="E44" s="3">
-        <v>746400</v>
+        <v>529500</v>
       </c>
       <c r="F44" s="3">
-        <v>449600</v>
+        <v>754500</v>
       </c>
       <c r="G44" s="3">
-        <v>275700</v>
+        <v>454500</v>
       </c>
       <c r="H44" s="3">
-        <v>294200</v>
+        <v>278700</v>
       </c>
       <c r="I44" s="3">
-        <v>535100</v>
+        <v>297400</v>
       </c>
       <c r="J44" s="3">
+        <v>540900</v>
+      </c>
+      <c r="K44" s="3">
         <v>281200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>297800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>285900</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72000</v>
+        <v>72800</v>
       </c>
       <c r="E45" s="3">
-        <v>42200</v>
+        <v>72800</v>
       </c>
       <c r="F45" s="3">
-        <v>34600</v>
+        <v>42600</v>
       </c>
       <c r="G45" s="3">
-        <v>14300</v>
+        <v>35000</v>
       </c>
       <c r="H45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I45" s="3">
         <v>6400</v>
       </c>
-      <c r="I45" s="3">
-        <v>16700</v>
-      </c>
       <c r="J45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K45" s="3">
         <v>10900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>10000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13900</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1253100</v>
+        <v>1176800</v>
       </c>
       <c r="E46" s="3">
-        <v>1177800</v>
+        <v>1190200</v>
       </c>
       <c r="F46" s="3">
-        <v>1037900</v>
+        <v>1190600</v>
       </c>
       <c r="G46" s="3">
-        <v>765900</v>
+        <v>1049100</v>
       </c>
       <c r="H46" s="3">
-        <v>797200</v>
+        <v>774300</v>
       </c>
       <c r="I46" s="3">
-        <v>730900</v>
+        <v>805900</v>
       </c>
       <c r="J46" s="3">
+        <v>738800</v>
+      </c>
+      <c r="K46" s="3">
         <v>781300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>837800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>647200</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>71700</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>106400</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -1876,75 +1980,84 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1531100</v>
+        <v>1526500</v>
       </c>
       <c r="E48" s="3">
-        <v>1419800</v>
+        <v>1547700</v>
       </c>
       <c r="F48" s="3">
-        <v>1307400</v>
+        <v>1435200</v>
       </c>
       <c r="G48" s="3">
+        <v>1321600</v>
+      </c>
+      <c r="H48" s="3">
+        <v>507500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>621000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K48" s="3">
+        <v>441000</v>
+      </c>
+      <c r="L48" s="3">
+        <v>483400</v>
+      </c>
+      <c r="M48" s="3">
         <v>502000</v>
       </c>
-      <c r="H48" s="3">
-        <v>614400</v>
-      </c>
-      <c r="I48" s="3">
-        <v>93200</v>
-      </c>
-      <c r="J48" s="3">
-        <v>441000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>483400</v>
-      </c>
-      <c r="L48" s="3">
-        <v>502000</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>207500</v>
+        <v>213000</v>
       </c>
       <c r="E49" s="3">
-        <v>223000</v>
+        <v>209800</v>
       </c>
       <c r="F49" s="3">
-        <v>229500</v>
+        <v>225400</v>
       </c>
       <c r="G49" s="3">
-        <v>119500</v>
+        <v>232000</v>
       </c>
       <c r="H49" s="3">
-        <v>129100</v>
+        <v>120800</v>
       </c>
       <c r="I49" s="3">
-        <v>285000</v>
+        <v>130500</v>
       </c>
       <c r="J49" s="3">
+        <v>288100</v>
+      </c>
+      <c r="K49" s="3">
         <v>151300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>189400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>212100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>51800</v>
+        <v>43800</v>
       </c>
       <c r="E52" s="3">
-        <v>55100</v>
+        <v>52300</v>
       </c>
       <c r="F52" s="3">
-        <v>72000</v>
+        <v>55700</v>
       </c>
       <c r="G52" s="3">
-        <v>67000</v>
+        <v>72800</v>
       </c>
       <c r="H52" s="3">
-        <v>78600</v>
+        <v>67700</v>
       </c>
       <c r="I52" s="3">
-        <v>81600</v>
+        <v>79500</v>
       </c>
       <c r="J52" s="3">
+        <v>82500</v>
+      </c>
+      <c r="K52" s="3">
         <v>90500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>90900</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2174100</v>
+        <v>2090300</v>
       </c>
       <c r="E54" s="3">
-        <v>2054200</v>
+        <v>2227700</v>
       </c>
       <c r="F54" s="3">
-        <v>1878400</v>
+        <v>2076600</v>
       </c>
       <c r="G54" s="3">
-        <v>1454500</v>
+        <v>1898800</v>
       </c>
       <c r="H54" s="3">
-        <v>1619300</v>
+        <v>1470300</v>
       </c>
       <c r="I54" s="3">
-        <v>1501300</v>
+        <v>1636900</v>
       </c>
       <c r="J54" s="3">
+        <v>1517600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1464100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1609500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1452200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,64 +2267,68 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>198100</v>
+        <v>190600</v>
       </c>
       <c r="E57" s="3">
-        <v>427900</v>
+        <v>200200</v>
       </c>
       <c r="F57" s="3">
-        <v>127600</v>
+        <v>432500</v>
       </c>
       <c r="G57" s="3">
-        <v>140000</v>
+        <v>128900</v>
       </c>
       <c r="H57" s="3">
-        <v>165000</v>
+        <v>141500</v>
       </c>
       <c r="I57" s="3">
-        <v>135800</v>
+        <v>166800</v>
       </c>
       <c r="J57" s="3">
+        <v>137200</v>
+      </c>
+      <c r="K57" s="3">
         <v>135000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>155200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>148300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>11300</v>
       </c>
       <c r="E58" s="3">
-        <v>300</v>
+        <v>15500</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
       </c>
       <c r="G58" s="3">
+        <v>300</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
-        <v>33900</v>
-      </c>
       <c r="I58" s="3">
-        <v>64400</v>
+        <v>34300</v>
       </c>
       <c r="J58" s="3">
-        <v>200</v>
+        <v>65100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2203,75 +2336,84 @@
       <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>287000</v>
+        <v>377400</v>
       </c>
       <c r="E59" s="3">
-        <v>224500</v>
+        <v>317800</v>
       </c>
       <c r="F59" s="3">
-        <v>166200</v>
+        <v>226900</v>
       </c>
       <c r="G59" s="3">
-        <v>111900</v>
+        <v>168000</v>
       </c>
       <c r="H59" s="3">
-        <v>63700</v>
+        <v>113100</v>
       </c>
       <c r="I59" s="3">
-        <v>69700</v>
+        <v>64400</v>
       </c>
       <c r="J59" s="3">
+        <v>70400</v>
+      </c>
+      <c r="K59" s="3">
         <v>33400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>42300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>58500</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>391000</v>
+        <v>415500</v>
       </c>
       <c r="E60" s="3">
-        <v>326400</v>
+        <v>410000</v>
       </c>
       <c r="F60" s="3">
-        <v>249000</v>
+        <v>330000</v>
       </c>
       <c r="G60" s="3">
-        <v>252100</v>
+        <v>251700</v>
       </c>
       <c r="H60" s="3">
-        <v>262600</v>
+        <v>254800</v>
       </c>
       <c r="I60" s="3">
-        <v>212200</v>
+        <v>265400</v>
       </c>
       <c r="J60" s="3">
+        <v>214500</v>
+      </c>
+      <c r="K60" s="3">
         <v>168600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>197700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>207000</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2302,42 +2444,48 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>196300</v>
+        <v>214500</v>
       </c>
       <c r="E62" s="3">
-        <v>221000</v>
+        <v>233100</v>
       </c>
       <c r="F62" s="3">
-        <v>154200</v>
+        <v>223400</v>
       </c>
       <c r="G62" s="3">
-        <v>69300</v>
+        <v>155900</v>
       </c>
       <c r="H62" s="3">
-        <v>103500</v>
+        <v>70000</v>
       </c>
       <c r="I62" s="3">
-        <v>103800</v>
+        <v>104700</v>
       </c>
       <c r="J62" s="3">
+        <v>104900</v>
+      </c>
+      <c r="K62" s="3">
         <v>137700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>163700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>150400</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>572700</v>
+        <v>604500</v>
       </c>
       <c r="E66" s="3">
-        <v>510100</v>
+        <v>593800</v>
       </c>
       <c r="F66" s="3">
-        <v>375500</v>
+        <v>515600</v>
       </c>
       <c r="G66" s="3">
-        <v>255800</v>
+        <v>379600</v>
       </c>
       <c r="H66" s="3">
-        <v>399500</v>
+        <v>258600</v>
       </c>
       <c r="I66" s="3">
-        <v>375900</v>
+        <v>403900</v>
       </c>
       <c r="J66" s="3">
+        <v>380000</v>
+      </c>
+      <c r="K66" s="3">
         <v>389800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>473400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>455300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1100100</v>
+        <v>1045500</v>
       </c>
       <c r="E72" s="3">
-        <v>1015300</v>
+        <v>1127200</v>
       </c>
       <c r="F72" s="3">
-        <v>949200</v>
+        <v>1026300</v>
       </c>
       <c r="G72" s="3">
-        <v>799600</v>
+        <v>959500</v>
       </c>
       <c r="H72" s="3">
-        <v>862000</v>
+        <v>808300</v>
       </c>
       <c r="I72" s="3">
-        <v>1516400</v>
+        <v>871400</v>
       </c>
       <c r="J72" s="3">
+        <v>1532800</v>
+      </c>
+      <c r="K72" s="3">
         <v>751600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>754700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>535300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1601400</v>
+        <v>1485900</v>
       </c>
       <c r="E76" s="3">
-        <v>1544200</v>
+        <v>1634000</v>
       </c>
       <c r="F76" s="3">
-        <v>1502900</v>
+        <v>1561000</v>
       </c>
       <c r="G76" s="3">
-        <v>1198700</v>
+        <v>1519200</v>
       </c>
       <c r="H76" s="3">
-        <v>1219800</v>
+        <v>1211700</v>
       </c>
       <c r="I76" s="3">
-        <v>1125300</v>
+        <v>1233000</v>
       </c>
       <c r="J76" s="3">
+        <v>1137600</v>
+      </c>
+      <c r="K76" s="3">
         <v>1074300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1136100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>996900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40543</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>158300</v>
+        <v>-74600</v>
       </c>
       <c r="E81" s="3">
-        <v>77500</v>
+        <v>166600</v>
       </c>
       <c r="F81" s="3">
-        <v>129800</v>
+        <v>78500</v>
       </c>
       <c r="G81" s="3">
-        <v>-54700</v>
+        <v>131500</v>
       </c>
       <c r="H81" s="3">
-        <v>54200</v>
+        <v>-55400</v>
       </c>
       <c r="I81" s="3">
-        <v>68300</v>
+        <v>54900</v>
       </c>
       <c r="J81" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K81" s="3">
         <v>93200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>29800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,31 +3096,32 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50100</v>
+        <v>50600</v>
       </c>
       <c r="E83" s="3">
-        <v>66000</v>
+        <v>50700</v>
       </c>
       <c r="F83" s="3">
-        <v>64300</v>
+        <v>66800</v>
       </c>
       <c r="G83" s="3">
-        <v>56800</v>
+        <v>65200</v>
       </c>
       <c r="H83" s="3">
-        <v>50300</v>
+        <v>57500</v>
       </c>
       <c r="I83" s="3">
-        <v>47400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
+        <v>51000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>48000</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -2931,9 +3129,12 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>143200</v>
+        <v>47500</v>
       </c>
       <c r="E89" s="3">
-        <v>124800</v>
+        <v>147000</v>
       </c>
       <c r="F89" s="3">
-        <v>154300</v>
+        <v>126400</v>
       </c>
       <c r="G89" s="3">
-        <v>-17200</v>
+        <v>156300</v>
       </c>
       <c r="H89" s="3">
-        <v>61700</v>
+        <v>-17400</v>
       </c>
       <c r="I89" s="3">
-        <v>92300</v>
+        <v>62500</v>
       </c>
       <c r="J89" s="3">
+        <v>93500</v>
+      </c>
+      <c r="K89" s="3">
         <v>164500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>152800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>124500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-89800</v>
+        <v>-58000</v>
       </c>
       <c r="E91" s="3">
-        <v>-136800</v>
+        <v>-90900</v>
       </c>
       <c r="F91" s="3">
-        <v>-139500</v>
+        <v>-138600</v>
       </c>
       <c r="G91" s="3">
-        <v>-29200</v>
+        <v>-141400</v>
       </c>
       <c r="H91" s="3">
-        <v>-83600</v>
+        <v>-29500</v>
       </c>
       <c r="I91" s="3">
-        <v>-143000</v>
+        <v>-84700</v>
       </c>
       <c r="J91" s="3">
+        <v>-144900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-58700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-22300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-26400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,32 +3469,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-35000</v>
+        <v>-4900</v>
       </c>
       <c r="E94" s="3">
-        <v>-121800</v>
+        <v>-37400</v>
       </c>
       <c r="F94" s="3">
-        <v>-142500</v>
+        <v>-123400</v>
       </c>
       <c r="G94" s="3">
-        <v>-29500</v>
+        <v>-144400</v>
       </c>
       <c r="H94" s="3">
-        <v>-92700</v>
+        <v>-29900</v>
       </c>
       <c r="I94" s="3">
-        <v>-132700</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
+        <v>-93900</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-134400</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3276,9 +3505,12 @@
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3324,9 +3557,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,32 +3665,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-118900</v>
+        <v>-9600</v>
       </c>
       <c r="E100" s="3">
-        <v>-16800</v>
+        <v>-120400</v>
       </c>
       <c r="F100" s="3">
-        <v>40400</v>
+        <v>-17100</v>
       </c>
       <c r="G100" s="3">
-        <v>-12800</v>
+        <v>41000</v>
       </c>
       <c r="H100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="I100" s="3">
         <v>-2200</v>
       </c>
-      <c r="I100" s="3">
-        <v>-11700</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="J100" s="3">
+        <v>-11800</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3456,73 +3701,82 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E101" s="3">
         <v>1000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1100</v>
       </c>
-      <c r="F101" s="3">
-        <v>6800</v>
-      </c>
       <c r="G101" s="3">
-        <v>27600</v>
+        <v>6900</v>
       </c>
       <c r="H101" s="3">
-        <v>34100</v>
+        <v>27900</v>
       </c>
       <c r="I101" s="3">
+        <v>34500</v>
+      </c>
+      <c r="J101" s="3">
         <v>1700</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-9700</v>
+        <v>20900</v>
       </c>
       <c r="E102" s="3">
-        <v>-15000</v>
+        <v>-9900</v>
       </c>
       <c r="F102" s="3">
-        <v>59100</v>
+        <v>-15200</v>
       </c>
       <c r="G102" s="3">
-        <v>-31900</v>
+        <v>59800</v>
       </c>
       <c r="H102" s="3">
-        <v>800</v>
+        <v>-32400</v>
       </c>
       <c r="I102" s="3">
-        <v>-50300</v>
+        <v>900</v>
       </c>
       <c r="J102" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="K102" s="3">
         <v>70500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>163000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>76300</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1558200</v>
+        <v>1706200</v>
       </c>
       <c r="E8" s="3">
-        <v>1626900</v>
+        <v>1781400</v>
       </c>
       <c r="F8" s="3">
-        <v>1308700</v>
+        <v>1433000</v>
       </c>
       <c r="G8" s="3">
-        <v>1254700</v>
+        <v>1373900</v>
       </c>
       <c r="H8" s="3">
-        <v>1116100</v>
+        <v>1222100</v>
       </c>
       <c r="I8" s="3">
-        <v>1223400</v>
+        <v>1339600</v>
       </c>
       <c r="J8" s="3">
-        <v>1111200</v>
+        <v>1216700</v>
       </c>
       <c r="K8" s="3">
         <v>1328900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1371100</v>
+        <v>1501300</v>
       </c>
       <c r="E9" s="3">
-        <v>1393700</v>
+        <v>1526000</v>
       </c>
       <c r="F9" s="3">
-        <v>1094200</v>
+        <v>1198000</v>
       </c>
       <c r="G9" s="3">
-        <v>1038600</v>
+        <v>1137200</v>
       </c>
       <c r="H9" s="3">
-        <v>1053200</v>
+        <v>1153200</v>
       </c>
       <c r="I9" s="3">
-        <v>1162400</v>
+        <v>1272800</v>
       </c>
       <c r="J9" s="3">
-        <v>1021900</v>
+        <v>1118900</v>
       </c>
       <c r="K9" s="3">
         <v>1168500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>187100</v>
+        <v>204900</v>
       </c>
       <c r="E10" s="3">
-        <v>233200</v>
+        <v>255400</v>
       </c>
       <c r="F10" s="3">
-        <v>214600</v>
+        <v>235000</v>
       </c>
       <c r="G10" s="3">
-        <v>216100</v>
+        <v>236700</v>
       </c>
       <c r="H10" s="3">
-        <v>62900</v>
+        <v>68800</v>
       </c>
       <c r="I10" s="3">
-        <v>60900</v>
+        <v>66700</v>
       </c>
       <c r="J10" s="3">
-        <v>89300</v>
+        <v>97800</v>
       </c>
       <c r="K10" s="3">
         <v>160400</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>94500</v>
+        <v>103500</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1452000</v>
+        <v>1589800</v>
       </c>
       <c r="E17" s="3">
-        <v>1442200</v>
+        <v>1579200</v>
       </c>
       <c r="F17" s="3">
-        <v>1150300</v>
+        <v>1259600</v>
       </c>
       <c r="G17" s="3">
-        <v>1098500</v>
+        <v>1202800</v>
       </c>
       <c r="H17" s="3">
-        <v>1212000</v>
+        <v>1327000</v>
       </c>
       <c r="I17" s="3">
-        <v>1214100</v>
+        <v>1329400</v>
       </c>
       <c r="J17" s="3">
-        <v>1075500</v>
+        <v>1177700</v>
       </c>
       <c r="K17" s="3">
         <v>1215600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>106300</v>
+        <v>116300</v>
       </c>
       <c r="E18" s="3">
-        <v>184700</v>
+        <v>202200</v>
       </c>
       <c r="F18" s="3">
-        <v>158400</v>
+        <v>173500</v>
       </c>
       <c r="G18" s="3">
-        <v>156200</v>
+        <v>171100</v>
       </c>
       <c r="H18" s="3">
-        <v>-95900</v>
+        <v>-105000</v>
       </c>
       <c r="I18" s="3">
-        <v>9300</v>
+        <v>10200</v>
       </c>
       <c r="J18" s="3">
-        <v>35700</v>
+        <v>39100</v>
       </c>
       <c r="K18" s="3">
         <v>113300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-29100</v>
+        <v>-31900</v>
       </c>
       <c r="E20" s="3">
-        <v>7600</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>-27400</v>
+        <v>-30000</v>
       </c>
       <c r="G20" s="3">
-        <v>85900</v>
+        <v>94000</v>
       </c>
       <c r="H20" s="3">
-        <v>-15900</v>
+        <v>-17400</v>
       </c>
       <c r="I20" s="3">
-        <v>22800</v>
+        <v>24900</v>
       </c>
       <c r="J20" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="K20" s="3">
         <v>-21900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>127800</v>
+        <v>139800</v>
       </c>
       <c r="E21" s="3">
-        <v>243100</v>
+        <v>266000</v>
       </c>
       <c r="F21" s="3">
-        <v>198000</v>
+        <v>216700</v>
       </c>
       <c r="G21" s="3">
-        <v>307400</v>
+        <v>336500</v>
       </c>
       <c r="H21" s="3">
-        <v>-54100</v>
+        <v>-59400</v>
       </c>
       <c r="I21" s="3">
-        <v>83100</v>
+        <v>90900</v>
       </c>
       <c r="J21" s="3">
-        <v>81700</v>
+        <v>89400</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
       </c>
       <c r="F22" s="3">
-        <v>2500</v>
+        <v>2700</v>
       </c>
       <c r="G22" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="J22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>74600</v>
+        <v>81700</v>
       </c>
       <c r="E23" s="3">
-        <v>191500</v>
+        <v>209700</v>
       </c>
       <c r="F23" s="3">
-        <v>128600</v>
+        <v>140800</v>
       </c>
       <c r="G23" s="3">
-        <v>240300</v>
+        <v>263100</v>
       </c>
       <c r="H23" s="3">
-        <v>-113600</v>
+        <v>-124300</v>
       </c>
       <c r="I23" s="3">
-        <v>31000</v>
+        <v>33900</v>
       </c>
       <c r="J23" s="3">
-        <v>32300</v>
+        <v>35400</v>
       </c>
       <c r="K23" s="3">
         <v>90400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>149400</v>
+        <v>163600</v>
       </c>
       <c r="E24" s="3">
-        <v>34300</v>
+        <v>37600</v>
       </c>
       <c r="F24" s="3">
-        <v>50100</v>
+        <v>54800</v>
       </c>
       <c r="G24" s="3">
-        <v>42200</v>
+        <v>46200</v>
       </c>
       <c r="H24" s="3">
-        <v>35100</v>
+        <v>38500</v>
       </c>
       <c r="I24" s="3">
-        <v>7400</v>
+        <v>8100</v>
       </c>
       <c r="J24" s="3">
-        <v>-12800</v>
+        <v>-14100</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-74800</v>
+        <v>-81900</v>
       </c>
       <c r="E26" s="3">
-        <v>157200</v>
+        <v>172100</v>
       </c>
       <c r="F26" s="3">
-        <v>78500</v>
+        <v>86000</v>
       </c>
       <c r="G26" s="3">
-        <v>198100</v>
+        <v>216900</v>
       </c>
       <c r="H26" s="3">
-        <v>-148700</v>
+        <v>-162800</v>
       </c>
       <c r="I26" s="3">
-        <v>23600</v>
+        <v>25900</v>
       </c>
       <c r="J26" s="3">
-        <v>45100</v>
+        <v>49400</v>
       </c>
       <c r="K26" s="3">
         <v>87900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-74600</v>
+        <v>-81700</v>
       </c>
       <c r="E27" s="3">
-        <v>166600</v>
+        <v>182400</v>
       </c>
       <c r="F27" s="3">
-        <v>78500</v>
+        <v>86000</v>
       </c>
       <c r="G27" s="3">
-        <v>131500</v>
+        <v>144000</v>
       </c>
       <c r="H27" s="3">
-        <v>-55400</v>
+        <v>-60600</v>
       </c>
       <c r="I27" s="3">
-        <v>54900</v>
+        <v>60100</v>
       </c>
       <c r="J27" s="3">
-        <v>69200</v>
+        <v>75700</v>
       </c>
       <c r="K27" s="3">
         <v>93200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>29100</v>
+        <v>31900</v>
       </c>
       <c r="E32" s="3">
-        <v>-7600</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>27400</v>
+        <v>30000</v>
       </c>
       <c r="G32" s="3">
-        <v>-85900</v>
+        <v>-94000</v>
       </c>
       <c r="H32" s="3">
-        <v>15900</v>
+        <v>17400</v>
       </c>
       <c r="I32" s="3">
-        <v>-22800</v>
+        <v>-24900</v>
       </c>
       <c r="J32" s="3">
-        <v>2100</v>
+        <v>2300</v>
       </c>
       <c r="K32" s="3">
         <v>21900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-74600</v>
+        <v>-81700</v>
       </c>
       <c r="E33" s="3">
-        <v>166600</v>
+        <v>182400</v>
       </c>
       <c r="F33" s="3">
-        <v>78500</v>
+        <v>86000</v>
       </c>
       <c r="G33" s="3">
-        <v>131500</v>
+        <v>144000</v>
       </c>
       <c r="H33" s="3">
-        <v>-55400</v>
+        <v>-60600</v>
       </c>
       <c r="I33" s="3">
-        <v>54900</v>
+        <v>60100</v>
       </c>
       <c r="J33" s="3">
-        <v>69200</v>
+        <v>75700</v>
       </c>
       <c r="K33" s="3">
         <v>93200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-74600</v>
+        <v>-81700</v>
       </c>
       <c r="E35" s="3">
-        <v>166600</v>
+        <v>182400</v>
       </c>
       <c r="F35" s="3">
-        <v>78500</v>
+        <v>86000</v>
       </c>
       <c r="G35" s="3">
-        <v>131500</v>
+        <v>144000</v>
       </c>
       <c r="H35" s="3">
-        <v>-55400</v>
+        <v>-60600</v>
       </c>
       <c r="I35" s="3">
-        <v>54900</v>
+        <v>60100</v>
       </c>
       <c r="J35" s="3">
-        <v>69200</v>
+        <v>75700</v>
       </c>
       <c r="K35" s="3">
         <v>93200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>339600</v>
+        <v>371800</v>
       </c>
       <c r="E41" s="3">
-        <v>318600</v>
+        <v>348900</v>
       </c>
       <c r="F41" s="3">
-        <v>661000</v>
+        <v>723800</v>
       </c>
       <c r="G41" s="3">
-        <v>363200</v>
+        <v>397700</v>
       </c>
       <c r="H41" s="3">
-        <v>283800</v>
+        <v>310800</v>
       </c>
       <c r="I41" s="3">
-        <v>319400</v>
+        <v>349700</v>
       </c>
       <c r="J41" s="3">
-        <v>318500</v>
+        <v>348700</v>
       </c>
       <c r="K41" s="3">
         <v>365500</v>
@@ -1777,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>7700</v>
+        <v>8500</v>
       </c>
       <c r="F42" s="3">
-        <v>7900</v>
+        <v>8600</v>
       </c>
       <c r="G42" s="3">
-        <v>3400</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3">
-        <v>17100</v>
+        <v>18700</v>
       </c>
       <c r="I42" s="3">
-        <v>13900</v>
+        <v>15200</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>647600</v>
+        <v>709100</v>
       </c>
       <c r="E43" s="3">
-        <v>726200</v>
+        <v>795200</v>
       </c>
       <c r="F43" s="3">
-        <v>908900</v>
+        <v>995200</v>
       </c>
       <c r="G43" s="3">
-        <v>475000</v>
+        <v>520200</v>
       </c>
       <c r="H43" s="3">
-        <v>180200</v>
+        <v>197300</v>
       </c>
       <c r="I43" s="3">
-        <v>168800</v>
+        <v>184800</v>
       </c>
       <c r="J43" s="3">
-        <v>141400</v>
+        <v>154800</v>
       </c>
       <c r="K43" s="3">
         <v>123700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>534300</v>
+        <v>585000</v>
       </c>
       <c r="E44" s="3">
-        <v>529500</v>
+        <v>579800</v>
       </c>
       <c r="F44" s="3">
-        <v>754500</v>
+        <v>826200</v>
       </c>
       <c r="G44" s="3">
-        <v>454500</v>
+        <v>497700</v>
       </c>
       <c r="H44" s="3">
-        <v>278700</v>
+        <v>305100</v>
       </c>
       <c r="I44" s="3">
-        <v>297400</v>
+        <v>325600</v>
       </c>
       <c r="J44" s="3">
-        <v>540900</v>
+        <v>592300</v>
       </c>
       <c r="K44" s="3">
         <v>281200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>72800</v>
+        <v>79700</v>
       </c>
       <c r="E45" s="3">
-        <v>72800</v>
+        <v>79700</v>
       </c>
       <c r="F45" s="3">
-        <v>42600</v>
+        <v>46700</v>
       </c>
       <c r="G45" s="3">
-        <v>35000</v>
+        <v>38300</v>
       </c>
       <c r="H45" s="3">
-        <v>14500</v>
+        <v>15900</v>
       </c>
       <c r="I45" s="3">
-        <v>6400</v>
+        <v>7100</v>
       </c>
       <c r="J45" s="3">
-        <v>16900</v>
+        <v>18500</v>
       </c>
       <c r="K45" s="3">
         <v>10900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1176800</v>
+        <v>1288600</v>
       </c>
       <c r="E46" s="3">
-        <v>1190200</v>
+        <v>1303200</v>
       </c>
       <c r="F46" s="3">
-        <v>1190600</v>
+        <v>1303600</v>
       </c>
       <c r="G46" s="3">
-        <v>1049100</v>
+        <v>1148700</v>
       </c>
       <c r="H46" s="3">
-        <v>774300</v>
+        <v>847800</v>
       </c>
       <c r="I46" s="3">
-        <v>805900</v>
+        <v>882400</v>
       </c>
       <c r="J46" s="3">
-        <v>738800</v>
+        <v>808900</v>
       </c>
       <c r="K46" s="3">
         <v>781300</v>
@@ -1954,10 +1954,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>71700</v>
+        <v>78500</v>
       </c>
       <c r="E47" s="3">
-        <v>106400</v>
+        <v>116600</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1526500</v>
+        <v>1671400</v>
       </c>
       <c r="E48" s="3">
-        <v>1547700</v>
+        <v>1694700</v>
       </c>
       <c r="F48" s="3">
-        <v>1435200</v>
+        <v>1571500</v>
       </c>
       <c r="G48" s="3">
-        <v>1321600</v>
+        <v>1447100</v>
       </c>
       <c r="H48" s="3">
-        <v>507500</v>
+        <v>555700</v>
       </c>
       <c r="I48" s="3">
-        <v>621000</v>
+        <v>680000</v>
       </c>
       <c r="J48" s="3">
-        <v>94200</v>
+        <v>103200</v>
       </c>
       <c r="K48" s="3">
         <v>441000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>213000</v>
+        <v>233200</v>
       </c>
       <c r="E49" s="3">
-        <v>209800</v>
+        <v>229700</v>
       </c>
       <c r="F49" s="3">
-        <v>225400</v>
+        <v>246800</v>
       </c>
       <c r="G49" s="3">
-        <v>232000</v>
+        <v>254100</v>
       </c>
       <c r="H49" s="3">
-        <v>120800</v>
+        <v>132300</v>
       </c>
       <c r="I49" s="3">
-        <v>130500</v>
+        <v>142800</v>
       </c>
       <c r="J49" s="3">
-        <v>288100</v>
+        <v>315400</v>
       </c>
       <c r="K49" s="3">
         <v>151300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>43800</v>
+        <v>48000</v>
       </c>
       <c r="E52" s="3">
-        <v>52300</v>
+        <v>57300</v>
       </c>
       <c r="F52" s="3">
-        <v>55700</v>
+        <v>61000</v>
       </c>
       <c r="G52" s="3">
-        <v>72800</v>
+        <v>79700</v>
       </c>
       <c r="H52" s="3">
-        <v>67700</v>
+        <v>74200</v>
       </c>
       <c r="I52" s="3">
-        <v>79500</v>
+        <v>87000</v>
       </c>
       <c r="J52" s="3">
-        <v>82500</v>
+        <v>90300</v>
       </c>
       <c r="K52" s="3">
         <v>90500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2090300</v>
+        <v>2288800</v>
       </c>
       <c r="E54" s="3">
-        <v>2227700</v>
+        <v>2439300</v>
       </c>
       <c r="F54" s="3">
-        <v>2076600</v>
+        <v>2273700</v>
       </c>
       <c r="G54" s="3">
-        <v>1898800</v>
+        <v>2079100</v>
       </c>
       <c r="H54" s="3">
-        <v>1470300</v>
+        <v>1610000</v>
       </c>
       <c r="I54" s="3">
-        <v>1636900</v>
+        <v>1792300</v>
       </c>
       <c r="J54" s="3">
-        <v>1517600</v>
+        <v>1661700</v>
       </c>
       <c r="K54" s="3">
         <v>1464100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>190600</v>
+        <v>208700</v>
       </c>
       <c r="E57" s="3">
-        <v>200200</v>
+        <v>219200</v>
       </c>
       <c r="F57" s="3">
-        <v>432500</v>
+        <v>473600</v>
       </c>
       <c r="G57" s="3">
-        <v>128900</v>
+        <v>141200</v>
       </c>
       <c r="H57" s="3">
-        <v>141500</v>
+        <v>154900</v>
       </c>
       <c r="I57" s="3">
-        <v>166800</v>
+        <v>182600</v>
       </c>
       <c r="J57" s="3">
-        <v>137200</v>
+        <v>150300</v>
       </c>
       <c r="K57" s="3">
         <v>135000</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11300</v>
+        <v>12300</v>
       </c>
       <c r="E58" s="3">
-        <v>15500</v>
+        <v>17000</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -2322,13 +2322,13 @@
         <v>300</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>34300</v>
+        <v>37500</v>
       </c>
       <c r="J58" s="3">
-        <v>65100</v>
+        <v>71300</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>377400</v>
+        <v>413300</v>
       </c>
       <c r="E59" s="3">
-        <v>317800</v>
+        <v>348000</v>
       </c>
       <c r="F59" s="3">
-        <v>226900</v>
+        <v>248500</v>
       </c>
       <c r="G59" s="3">
-        <v>168000</v>
+        <v>183900</v>
       </c>
       <c r="H59" s="3">
-        <v>113100</v>
+        <v>123800</v>
       </c>
       <c r="I59" s="3">
-        <v>64400</v>
+        <v>70500</v>
       </c>
       <c r="J59" s="3">
-        <v>70400</v>
+        <v>77100</v>
       </c>
       <c r="K59" s="3">
         <v>33400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>415500</v>
+        <v>455000</v>
       </c>
       <c r="E60" s="3">
-        <v>410000</v>
+        <v>449000</v>
       </c>
       <c r="F60" s="3">
-        <v>330000</v>
+        <v>361300</v>
       </c>
       <c r="G60" s="3">
-        <v>251700</v>
+        <v>275600</v>
       </c>
       <c r="H60" s="3">
-        <v>254800</v>
+        <v>279000</v>
       </c>
       <c r="I60" s="3">
-        <v>265400</v>
+        <v>290600</v>
       </c>
       <c r="J60" s="3">
-        <v>214500</v>
+        <v>234900</v>
       </c>
       <c r="K60" s="3">
         <v>168600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>214500</v>
+        <v>234800</v>
       </c>
       <c r="E62" s="3">
-        <v>233100</v>
+        <v>255200</v>
       </c>
       <c r="F62" s="3">
-        <v>223400</v>
+        <v>244600</v>
       </c>
       <c r="G62" s="3">
-        <v>155900</v>
+        <v>170600</v>
       </c>
       <c r="H62" s="3">
-        <v>70000</v>
+        <v>76700</v>
       </c>
       <c r="I62" s="3">
-        <v>104700</v>
+        <v>114600</v>
       </c>
       <c r="J62" s="3">
-        <v>104900</v>
+        <v>114900</v>
       </c>
       <c r="K62" s="3">
         <v>137700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>604500</v>
+        <v>661900</v>
       </c>
       <c r="E66" s="3">
-        <v>593800</v>
+        <v>650200</v>
       </c>
       <c r="F66" s="3">
-        <v>515600</v>
+        <v>564600</v>
       </c>
       <c r="G66" s="3">
-        <v>379600</v>
+        <v>415600</v>
       </c>
       <c r="H66" s="3">
-        <v>258600</v>
+        <v>283200</v>
       </c>
       <c r="I66" s="3">
-        <v>403900</v>
+        <v>442200</v>
       </c>
       <c r="J66" s="3">
-        <v>380000</v>
+        <v>416100</v>
       </c>
       <c r="K66" s="3">
         <v>389800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1045500</v>
+        <v>1144800</v>
       </c>
       <c r="E72" s="3">
-        <v>1127200</v>
+        <v>1234200</v>
       </c>
       <c r="F72" s="3">
-        <v>1026300</v>
+        <v>1123800</v>
       </c>
       <c r="G72" s="3">
-        <v>959500</v>
+        <v>1050600</v>
       </c>
       <c r="H72" s="3">
-        <v>808300</v>
+        <v>885100</v>
       </c>
       <c r="I72" s="3">
-        <v>871400</v>
+        <v>954100</v>
       </c>
       <c r="J72" s="3">
-        <v>1532800</v>
+        <v>1678400</v>
       </c>
       <c r="K72" s="3">
         <v>751600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1485900</v>
+        <v>1627000</v>
       </c>
       <c r="E76" s="3">
-        <v>1634000</v>
+        <v>1789100</v>
       </c>
       <c r="F76" s="3">
-        <v>1561000</v>
+        <v>1709200</v>
       </c>
       <c r="G76" s="3">
-        <v>1519200</v>
+        <v>1663400</v>
       </c>
       <c r="H76" s="3">
-        <v>1211700</v>
+        <v>1326800</v>
       </c>
       <c r="I76" s="3">
-        <v>1233000</v>
+        <v>1350100</v>
       </c>
       <c r="J76" s="3">
-        <v>1137600</v>
+        <v>1245600</v>
       </c>
       <c r="K76" s="3">
         <v>1074300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-74600</v>
+        <v>-81700</v>
       </c>
       <c r="E81" s="3">
-        <v>166600</v>
+        <v>182400</v>
       </c>
       <c r="F81" s="3">
-        <v>78500</v>
+        <v>86000</v>
       </c>
       <c r="G81" s="3">
-        <v>131500</v>
+        <v>144000</v>
       </c>
       <c r="H81" s="3">
-        <v>-55400</v>
+        <v>-60600</v>
       </c>
       <c r="I81" s="3">
-        <v>54900</v>
+        <v>60100</v>
       </c>
       <c r="J81" s="3">
-        <v>69200</v>
+        <v>75700</v>
       </c>
       <c r="K81" s="3">
         <v>93200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>50600</v>
+        <v>55400</v>
       </c>
       <c r="E83" s="3">
-        <v>50700</v>
+        <v>55500</v>
       </c>
       <c r="F83" s="3">
-        <v>66800</v>
+        <v>73200</v>
       </c>
       <c r="G83" s="3">
-        <v>65200</v>
+        <v>71400</v>
       </c>
       <c r="H83" s="3">
-        <v>57500</v>
+        <v>63000</v>
       </c>
       <c r="I83" s="3">
-        <v>51000</v>
+        <v>55800</v>
       </c>
       <c r="J83" s="3">
-        <v>48000</v>
+        <v>52600</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>47500</v>
+        <v>52100</v>
       </c>
       <c r="E89" s="3">
-        <v>147000</v>
+        <v>161000</v>
       </c>
       <c r="F89" s="3">
-        <v>126400</v>
+        <v>138400</v>
       </c>
       <c r="G89" s="3">
-        <v>156300</v>
+        <v>171200</v>
       </c>
       <c r="H89" s="3">
-        <v>-17400</v>
+        <v>-19100</v>
       </c>
       <c r="I89" s="3">
-        <v>62500</v>
+        <v>68400</v>
       </c>
       <c r="J89" s="3">
-        <v>93500</v>
+        <v>102400</v>
       </c>
       <c r="K89" s="3">
         <v>164500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-58000</v>
+        <v>-63500</v>
       </c>
       <c r="E91" s="3">
-        <v>-90900</v>
+        <v>-99600</v>
       </c>
       <c r="F91" s="3">
-        <v>-138600</v>
+        <v>-151800</v>
       </c>
       <c r="G91" s="3">
-        <v>-141400</v>
+        <v>-154800</v>
       </c>
       <c r="H91" s="3">
-        <v>-29500</v>
+        <v>-32300</v>
       </c>
       <c r="I91" s="3">
-        <v>-84700</v>
+        <v>-92800</v>
       </c>
       <c r="J91" s="3">
-        <v>-144900</v>
+        <v>-158700</v>
       </c>
       <c r="K91" s="3">
         <v>-58700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4900</v>
+        <v>-5300</v>
       </c>
       <c r="E94" s="3">
-        <v>-37400</v>
+        <v>-41000</v>
       </c>
       <c r="F94" s="3">
-        <v>-123400</v>
+        <v>-135100</v>
       </c>
       <c r="G94" s="3">
-        <v>-144400</v>
+        <v>-158100</v>
       </c>
       <c r="H94" s="3">
-        <v>-29900</v>
+        <v>-32700</v>
       </c>
       <c r="I94" s="3">
-        <v>-93900</v>
+        <v>-102900</v>
       </c>
       <c r="J94" s="3">
-        <v>-134400</v>
+        <v>-147200</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9600</v>
+        <v>-10500</v>
       </c>
       <c r="E100" s="3">
-        <v>-120400</v>
+        <v>-131900</v>
       </c>
       <c r="F100" s="3">
-        <v>-17100</v>
+        <v>-18700</v>
       </c>
       <c r="G100" s="3">
-        <v>41000</v>
+        <v>44800</v>
       </c>
       <c r="H100" s="3">
-        <v>-13000</v>
+        <v>-14300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2200</v>
+        <v>-2400</v>
       </c>
       <c r="J100" s="3">
-        <v>-11800</v>
+        <v>-12900</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12100</v>
+        <v>-13300</v>
       </c>
       <c r="E101" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>6900</v>
+        <v>7500</v>
       </c>
       <c r="H101" s="3">
-        <v>27900</v>
+        <v>30600</v>
       </c>
       <c r="I101" s="3">
-        <v>34500</v>
+        <v>37800</v>
       </c>
       <c r="J101" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>20900</v>
+        <v>22900</v>
       </c>
       <c r="E102" s="3">
-        <v>-9900</v>
+        <v>-10800</v>
       </c>
       <c r="F102" s="3">
-        <v>-15200</v>
+        <v>-16600</v>
       </c>
       <c r="G102" s="3">
-        <v>59800</v>
+        <v>65500</v>
       </c>
       <c r="H102" s="3">
-        <v>-32400</v>
+        <v>-35400</v>
       </c>
       <c r="I102" s="3">
         <v>900</v>
       </c>
       <c r="J102" s="3">
-        <v>-51000</v>
+        <v>-55800</v>
       </c>
       <c r="K102" s="3">
         <v>70500</v>

--- a/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="92">
   <si>
     <t>SIM</t>
   </si>
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1706200</v>
+        <v>1652900</v>
       </c>
       <c r="E8" s="3">
-        <v>1781400</v>
+        <v>1725800</v>
       </c>
       <c r="F8" s="3">
-        <v>1433000</v>
+        <v>1388200</v>
       </c>
       <c r="G8" s="3">
-        <v>1373900</v>
+        <v>1330900</v>
       </c>
       <c r="H8" s="3">
-        <v>1222100</v>
+        <v>1183900</v>
       </c>
       <c r="I8" s="3">
-        <v>1339600</v>
+        <v>1297700</v>
       </c>
       <c r="J8" s="3">
-        <v>1216700</v>
+        <v>1178700</v>
       </c>
       <c r="K8" s="3">
         <v>1328900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1501300</v>
+        <v>1454300</v>
       </c>
       <c r="E9" s="3">
-        <v>1526000</v>
+        <v>1478300</v>
       </c>
       <c r="F9" s="3">
-        <v>1198000</v>
+        <v>1160600</v>
       </c>
       <c r="G9" s="3">
-        <v>1137200</v>
+        <v>1101700</v>
       </c>
       <c r="H9" s="3">
-        <v>1153200</v>
+        <v>1117200</v>
       </c>
       <c r="I9" s="3">
-        <v>1272800</v>
+        <v>1233100</v>
       </c>
       <c r="J9" s="3">
-        <v>1118900</v>
+        <v>1084000</v>
       </c>
       <c r="K9" s="3">
         <v>1168500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>204900</v>
+        <v>198500</v>
       </c>
       <c r="E10" s="3">
-        <v>255400</v>
+        <v>247400</v>
       </c>
       <c r="F10" s="3">
-        <v>235000</v>
+        <v>227600</v>
       </c>
       <c r="G10" s="3">
-        <v>236700</v>
+        <v>229300</v>
       </c>
       <c r="H10" s="3">
-        <v>68800</v>
+        <v>66700</v>
       </c>
       <c r="I10" s="3">
-        <v>66700</v>
+        <v>64600</v>
       </c>
       <c r="J10" s="3">
-        <v>97800</v>
+        <v>94700</v>
       </c>
       <c r="K10" s="3">
         <v>160400</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>103500</v>
+        <v>100200</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1589800</v>
+        <v>1540200</v>
       </c>
       <c r="E17" s="3">
-        <v>1579200</v>
+        <v>1529900</v>
       </c>
       <c r="F17" s="3">
-        <v>1259600</v>
+        <v>1220200</v>
       </c>
       <c r="G17" s="3">
-        <v>1202800</v>
+        <v>1165200</v>
       </c>
       <c r="H17" s="3">
-        <v>1327000</v>
+        <v>1285600</v>
       </c>
       <c r="I17" s="3">
-        <v>1329400</v>
+        <v>1287900</v>
       </c>
       <c r="J17" s="3">
-        <v>1177700</v>
+        <v>1140900</v>
       </c>
       <c r="K17" s="3">
         <v>1215600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>116300</v>
+        <v>112700</v>
       </c>
       <c r="E18" s="3">
-        <v>202200</v>
+        <v>195900</v>
       </c>
       <c r="F18" s="3">
-        <v>173500</v>
+        <v>168000</v>
       </c>
       <c r="G18" s="3">
-        <v>171100</v>
+        <v>165700</v>
       </c>
       <c r="H18" s="3">
-        <v>-105000</v>
+        <v>-101700</v>
       </c>
       <c r="I18" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="J18" s="3">
-        <v>39100</v>
+        <v>37900</v>
       </c>
       <c r="K18" s="3">
         <v>113300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-31900</v>
+        <v>-30900</v>
       </c>
       <c r="E20" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="F20" s="3">
-        <v>-30000</v>
+        <v>-29000</v>
       </c>
       <c r="G20" s="3">
-        <v>94000</v>
+        <v>91100</v>
       </c>
       <c r="H20" s="3">
-        <v>-17400</v>
+        <v>-16800</v>
       </c>
       <c r="I20" s="3">
-        <v>24900</v>
+        <v>24100</v>
       </c>
       <c r="J20" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="K20" s="3">
         <v>-21900</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>139800</v>
+        <v>134800</v>
       </c>
       <c r="E21" s="3">
-        <v>266000</v>
+        <v>257100</v>
       </c>
       <c r="F21" s="3">
-        <v>216700</v>
+        <v>209100</v>
       </c>
       <c r="G21" s="3">
-        <v>336500</v>
+        <v>325100</v>
       </c>
       <c r="H21" s="3">
-        <v>-59400</v>
+        <v>-58200</v>
       </c>
       <c r="I21" s="3">
-        <v>90900</v>
-      </c>
-      <c r="J21" s="3">
-        <v>89400</v>
+        <v>87400</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1167,13 +1167,13 @@
         <v>800</v>
       </c>
       <c r="F22" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="G22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>81700</v>
+        <v>79200</v>
       </c>
       <c r="E23" s="3">
-        <v>209700</v>
+        <v>203100</v>
       </c>
       <c r="F23" s="3">
-        <v>140800</v>
+        <v>136400</v>
       </c>
       <c r="G23" s="3">
-        <v>263100</v>
+        <v>254900</v>
       </c>
       <c r="H23" s="3">
-        <v>-124300</v>
+        <v>-120500</v>
       </c>
       <c r="I23" s="3">
-        <v>33900</v>
+        <v>32900</v>
       </c>
       <c r="J23" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="K23" s="3">
         <v>90400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>163600</v>
+        <v>158500</v>
       </c>
       <c r="E24" s="3">
-        <v>37600</v>
+        <v>36400</v>
       </c>
       <c r="F24" s="3">
-        <v>54800</v>
+        <v>53100</v>
       </c>
       <c r="G24" s="3">
-        <v>46200</v>
+        <v>44800</v>
       </c>
       <c r="H24" s="3">
-        <v>38500</v>
+        <v>37300</v>
       </c>
       <c r="I24" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="J24" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-81900</v>
+        <v>-79300</v>
       </c>
       <c r="E26" s="3">
-        <v>172100</v>
+        <v>166700</v>
       </c>
       <c r="F26" s="3">
-        <v>86000</v>
+        <v>83300</v>
       </c>
       <c r="G26" s="3">
-        <v>216900</v>
+        <v>210100</v>
       </c>
       <c r="H26" s="3">
-        <v>-162800</v>
+        <v>-157700</v>
       </c>
       <c r="I26" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="J26" s="3">
-        <v>49400</v>
+        <v>47900</v>
       </c>
       <c r="K26" s="3">
         <v>87900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-81700</v>
+        <v>-79100</v>
       </c>
       <c r="E27" s="3">
-        <v>182400</v>
+        <v>176700</v>
       </c>
       <c r="F27" s="3">
-        <v>86000</v>
+        <v>83300</v>
       </c>
       <c r="G27" s="3">
-        <v>144000</v>
+        <v>139500</v>
       </c>
       <c r="H27" s="3">
-        <v>-60600</v>
+        <v>-58700</v>
       </c>
       <c r="I27" s="3">
-        <v>60100</v>
+        <v>58200</v>
       </c>
       <c r="J27" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="K27" s="3">
         <v>93200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="E32" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="F32" s="3">
-        <v>30000</v>
+        <v>29000</v>
       </c>
       <c r="G32" s="3">
-        <v>-94000</v>
+        <v>-91100</v>
       </c>
       <c r="H32" s="3">
-        <v>17400</v>
+        <v>16800</v>
       </c>
       <c r="I32" s="3">
-        <v>-24900</v>
+        <v>-24100</v>
       </c>
       <c r="J32" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K32" s="3">
         <v>21900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-81700</v>
+        <v>-79100</v>
       </c>
       <c r="E33" s="3">
-        <v>182400</v>
+        <v>176700</v>
       </c>
       <c r="F33" s="3">
-        <v>86000</v>
+        <v>83300</v>
       </c>
       <c r="G33" s="3">
-        <v>144000</v>
+        <v>139500</v>
       </c>
       <c r="H33" s="3">
-        <v>-60600</v>
+        <v>-58700</v>
       </c>
       <c r="I33" s="3">
-        <v>60100</v>
+        <v>58200</v>
       </c>
       <c r="J33" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="K33" s="3">
         <v>93200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-81700</v>
+        <v>-79100</v>
       </c>
       <c r="E35" s="3">
-        <v>182400</v>
+        <v>176700</v>
       </c>
       <c r="F35" s="3">
-        <v>86000</v>
+        <v>83300</v>
       </c>
       <c r="G35" s="3">
-        <v>144000</v>
+        <v>139500</v>
       </c>
       <c r="H35" s="3">
-        <v>-60600</v>
+        <v>-58700</v>
       </c>
       <c r="I35" s="3">
-        <v>60100</v>
+        <v>58200</v>
       </c>
       <c r="J35" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="K35" s="3">
         <v>93200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>371800</v>
+        <v>360200</v>
       </c>
       <c r="E41" s="3">
-        <v>348900</v>
+        <v>338000</v>
       </c>
       <c r="F41" s="3">
-        <v>723800</v>
+        <v>701200</v>
       </c>
       <c r="G41" s="3">
-        <v>397700</v>
+        <v>385300</v>
       </c>
       <c r="H41" s="3">
-        <v>310800</v>
+        <v>301100</v>
       </c>
       <c r="I41" s="3">
-        <v>349700</v>
+        <v>338800</v>
       </c>
       <c r="J41" s="3">
-        <v>348700</v>
+        <v>337900</v>
       </c>
       <c r="K41" s="3">
         <v>365500</v>
@@ -1777,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>8500</v>
+        <v>8200</v>
       </c>
       <c r="F42" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="G42" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H42" s="3">
-        <v>18700</v>
+        <v>18100</v>
       </c>
       <c r="I42" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>709100</v>
+        <v>687000</v>
       </c>
       <c r="E43" s="3">
-        <v>795200</v>
+        <v>770300</v>
       </c>
       <c r="F43" s="3">
-        <v>995200</v>
+        <v>964100</v>
       </c>
       <c r="G43" s="3">
-        <v>520200</v>
+        <v>503900</v>
       </c>
       <c r="H43" s="3">
-        <v>197300</v>
+        <v>191100</v>
       </c>
       <c r="I43" s="3">
-        <v>184800</v>
+        <v>179100</v>
       </c>
       <c r="J43" s="3">
-        <v>154800</v>
+        <v>150000</v>
       </c>
       <c r="K43" s="3">
         <v>123700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>585000</v>
+        <v>566700</v>
       </c>
       <c r="E44" s="3">
-        <v>579800</v>
+        <v>561700</v>
       </c>
       <c r="F44" s="3">
-        <v>826200</v>
+        <v>800400</v>
       </c>
       <c r="G44" s="3">
-        <v>497700</v>
+        <v>482100</v>
       </c>
       <c r="H44" s="3">
-        <v>305100</v>
+        <v>295600</v>
       </c>
       <c r="I44" s="3">
-        <v>325600</v>
+        <v>315400</v>
       </c>
       <c r="J44" s="3">
-        <v>592300</v>
+        <v>573800</v>
       </c>
       <c r="K44" s="3">
         <v>281200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>79700</v>
+        <v>77200</v>
       </c>
       <c r="E45" s="3">
-        <v>79700</v>
+        <v>77300</v>
       </c>
       <c r="F45" s="3">
-        <v>46700</v>
+        <v>45200</v>
       </c>
       <c r="G45" s="3">
-        <v>38300</v>
+        <v>37100</v>
       </c>
       <c r="H45" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="I45" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="J45" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="K45" s="3">
         <v>10900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1288600</v>
+        <v>1248300</v>
       </c>
       <c r="E46" s="3">
-        <v>1303200</v>
+        <v>1262500</v>
       </c>
       <c r="F46" s="3">
-        <v>1303600</v>
+        <v>1262900</v>
       </c>
       <c r="G46" s="3">
-        <v>1148700</v>
+        <v>1112900</v>
       </c>
       <c r="H46" s="3">
-        <v>847800</v>
+        <v>821300</v>
       </c>
       <c r="I46" s="3">
-        <v>882400</v>
+        <v>854800</v>
       </c>
       <c r="J46" s="3">
-        <v>808900</v>
+        <v>783700</v>
       </c>
       <c r="K46" s="3">
         <v>781300</v>
@@ -1954,10 +1954,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>78500</v>
+        <v>76000</v>
       </c>
       <c r="E47" s="3">
-        <v>116600</v>
+        <v>112900</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1671400</v>
+        <v>1619200</v>
       </c>
       <c r="E48" s="3">
-        <v>1694700</v>
+        <v>1641800</v>
       </c>
       <c r="F48" s="3">
-        <v>1571500</v>
+        <v>1522400</v>
       </c>
       <c r="G48" s="3">
-        <v>1447100</v>
+        <v>1401900</v>
       </c>
       <c r="H48" s="3">
-        <v>555700</v>
+        <v>538300</v>
       </c>
       <c r="I48" s="3">
-        <v>680000</v>
+        <v>658800</v>
       </c>
       <c r="J48" s="3">
-        <v>103200</v>
+        <v>99900</v>
       </c>
       <c r="K48" s="3">
         <v>441000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>233200</v>
+        <v>225900</v>
       </c>
       <c r="E49" s="3">
-        <v>229700</v>
+        <v>222500</v>
       </c>
       <c r="F49" s="3">
-        <v>246800</v>
+        <v>239100</v>
       </c>
       <c r="G49" s="3">
-        <v>254100</v>
+        <v>246100</v>
       </c>
       <c r="H49" s="3">
-        <v>132300</v>
+        <v>128200</v>
       </c>
       <c r="I49" s="3">
-        <v>142800</v>
+        <v>138400</v>
       </c>
       <c r="J49" s="3">
-        <v>315400</v>
+        <v>305600</v>
       </c>
       <c r="K49" s="3">
         <v>151300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>48000</v>
+        <v>46500</v>
       </c>
       <c r="E52" s="3">
-        <v>57300</v>
+        <v>55500</v>
       </c>
       <c r="F52" s="3">
-        <v>61000</v>
+        <v>59000</v>
       </c>
       <c r="G52" s="3">
-        <v>79700</v>
+        <v>77200</v>
       </c>
       <c r="H52" s="3">
-        <v>74200</v>
+        <v>71900</v>
       </c>
       <c r="I52" s="3">
-        <v>87000</v>
+        <v>84300</v>
       </c>
       <c r="J52" s="3">
-        <v>90300</v>
+        <v>87500</v>
       </c>
       <c r="K52" s="3">
         <v>90500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2288800</v>
+        <v>2217300</v>
       </c>
       <c r="E54" s="3">
-        <v>2439300</v>
+        <v>2363100</v>
       </c>
       <c r="F54" s="3">
-        <v>2273700</v>
+        <v>2202700</v>
       </c>
       <c r="G54" s="3">
-        <v>2079100</v>
+        <v>2014100</v>
       </c>
       <c r="H54" s="3">
-        <v>1610000</v>
+        <v>1559700</v>
       </c>
       <c r="I54" s="3">
-        <v>1792300</v>
+        <v>1736300</v>
       </c>
       <c r="J54" s="3">
-        <v>1661700</v>
+        <v>1609700</v>
       </c>
       <c r="K54" s="3">
         <v>1464100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>208700</v>
+        <v>202200</v>
       </c>
       <c r="E57" s="3">
-        <v>219200</v>
+        <v>212400</v>
       </c>
       <c r="F57" s="3">
-        <v>473600</v>
+        <v>458800</v>
       </c>
       <c r="G57" s="3">
-        <v>141200</v>
+        <v>136800</v>
       </c>
       <c r="H57" s="3">
-        <v>154900</v>
+        <v>150100</v>
       </c>
       <c r="I57" s="3">
-        <v>182600</v>
+        <v>176900</v>
       </c>
       <c r="J57" s="3">
-        <v>150300</v>
+        <v>145600</v>
       </c>
       <c r="K57" s="3">
         <v>135000</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12300</v>
+        <v>12000</v>
       </c>
       <c r="E58" s="3">
-        <v>17000</v>
+        <v>16500</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -2325,10 +2325,10 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>37500</v>
+        <v>36400</v>
       </c>
       <c r="J58" s="3">
-        <v>71300</v>
+        <v>69100</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>413300</v>
+        <v>400400</v>
       </c>
       <c r="E59" s="3">
-        <v>348000</v>
+        <v>337100</v>
       </c>
       <c r="F59" s="3">
-        <v>248500</v>
+        <v>240700</v>
       </c>
       <c r="G59" s="3">
-        <v>183900</v>
+        <v>178200</v>
       </c>
       <c r="H59" s="3">
-        <v>123800</v>
+        <v>119900</v>
       </c>
       <c r="I59" s="3">
-        <v>70500</v>
+        <v>68300</v>
       </c>
       <c r="J59" s="3">
-        <v>77100</v>
+        <v>74700</v>
       </c>
       <c r="K59" s="3">
         <v>33400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>455000</v>
+        <v>440800</v>
       </c>
       <c r="E60" s="3">
-        <v>449000</v>
+        <v>435000</v>
       </c>
       <c r="F60" s="3">
-        <v>361300</v>
+        <v>350000</v>
       </c>
       <c r="G60" s="3">
-        <v>275600</v>
+        <v>267000</v>
       </c>
       <c r="H60" s="3">
-        <v>279000</v>
+        <v>270300</v>
       </c>
       <c r="I60" s="3">
-        <v>290600</v>
+        <v>281600</v>
       </c>
       <c r="J60" s="3">
-        <v>234900</v>
+        <v>227600</v>
       </c>
       <c r="K60" s="3">
         <v>168600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>234800</v>
+        <v>227500</v>
       </c>
       <c r="E62" s="3">
-        <v>255200</v>
+        <v>247300</v>
       </c>
       <c r="F62" s="3">
-        <v>244600</v>
+        <v>236900</v>
       </c>
       <c r="G62" s="3">
-        <v>170600</v>
+        <v>165300</v>
       </c>
       <c r="H62" s="3">
-        <v>76700</v>
+        <v>74300</v>
       </c>
       <c r="I62" s="3">
-        <v>114600</v>
+        <v>111000</v>
       </c>
       <c r="J62" s="3">
-        <v>114900</v>
+        <v>111300</v>
       </c>
       <c r="K62" s="3">
         <v>137700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>661900</v>
+        <v>641200</v>
       </c>
       <c r="E66" s="3">
-        <v>650200</v>
+        <v>629800</v>
       </c>
       <c r="F66" s="3">
-        <v>564600</v>
+        <v>546900</v>
       </c>
       <c r="G66" s="3">
-        <v>415600</v>
+        <v>402600</v>
       </c>
       <c r="H66" s="3">
-        <v>283200</v>
+        <v>274300</v>
       </c>
       <c r="I66" s="3">
-        <v>442200</v>
+        <v>428400</v>
       </c>
       <c r="J66" s="3">
-        <v>416100</v>
+        <v>403100</v>
       </c>
       <c r="K66" s="3">
         <v>389800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1144800</v>
+        <v>1109000</v>
       </c>
       <c r="E72" s="3">
-        <v>1234200</v>
+        <v>1195700</v>
       </c>
       <c r="F72" s="3">
-        <v>1123800</v>
+        <v>1088700</v>
       </c>
       <c r="G72" s="3">
-        <v>1050600</v>
+        <v>1017800</v>
       </c>
       <c r="H72" s="3">
-        <v>885100</v>
+        <v>857400</v>
       </c>
       <c r="I72" s="3">
-        <v>954100</v>
+        <v>924300</v>
       </c>
       <c r="J72" s="3">
-        <v>1678400</v>
+        <v>1625900</v>
       </c>
       <c r="K72" s="3">
         <v>751600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1627000</v>
+        <v>1576100</v>
       </c>
       <c r="E76" s="3">
-        <v>1789100</v>
+        <v>1733200</v>
       </c>
       <c r="F76" s="3">
-        <v>1709200</v>
+        <v>1655800</v>
       </c>
       <c r="G76" s="3">
-        <v>1663400</v>
+        <v>1611500</v>
       </c>
       <c r="H76" s="3">
-        <v>1326800</v>
+        <v>1285300</v>
       </c>
       <c r="I76" s="3">
-        <v>1350100</v>
+        <v>1307900</v>
       </c>
       <c r="J76" s="3">
-        <v>1245600</v>
+        <v>1206700</v>
       </c>
       <c r="K76" s="3">
         <v>1074300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-81700</v>
+        <v>-79100</v>
       </c>
       <c r="E81" s="3">
-        <v>182400</v>
+        <v>176700</v>
       </c>
       <c r="F81" s="3">
-        <v>86000</v>
+        <v>83300</v>
       </c>
       <c r="G81" s="3">
-        <v>144000</v>
+        <v>139500</v>
       </c>
       <c r="H81" s="3">
-        <v>-60600</v>
+        <v>-58700</v>
       </c>
       <c r="I81" s="3">
-        <v>60100</v>
+        <v>58200</v>
       </c>
       <c r="J81" s="3">
-        <v>75700</v>
+        <v>73400</v>
       </c>
       <c r="K81" s="3">
         <v>93200</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55400</v>
+        <v>53600</v>
       </c>
       <c r="E83" s="3">
-        <v>55500</v>
+        <v>53800</v>
       </c>
       <c r="F83" s="3">
-        <v>73200</v>
+        <v>70900</v>
       </c>
       <c r="G83" s="3">
-        <v>71400</v>
+        <v>69100</v>
       </c>
       <c r="H83" s="3">
-        <v>63000</v>
+        <v>61000</v>
       </c>
       <c r="I83" s="3">
-        <v>55800</v>
-      </c>
-      <c r="J83" s="3">
-        <v>52600</v>
+        <v>54100</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>52100</v>
+        <v>50400</v>
       </c>
       <c r="E89" s="3">
-        <v>161000</v>
+        <v>155900</v>
       </c>
       <c r="F89" s="3">
-        <v>138400</v>
+        <v>134100</v>
       </c>
       <c r="G89" s="3">
-        <v>171200</v>
+        <v>165800</v>
       </c>
       <c r="H89" s="3">
-        <v>-19100</v>
+        <v>-18500</v>
       </c>
       <c r="I89" s="3">
-        <v>68400</v>
+        <v>66300</v>
       </c>
       <c r="J89" s="3">
-        <v>102400</v>
+        <v>99200</v>
       </c>
       <c r="K89" s="3">
         <v>164500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-63500</v>
+        <v>-61500</v>
       </c>
       <c r="E91" s="3">
-        <v>-99600</v>
+        <v>-96500</v>
       </c>
       <c r="F91" s="3">
-        <v>-151800</v>
+        <v>-147000</v>
       </c>
       <c r="G91" s="3">
-        <v>-154800</v>
+        <v>-150000</v>
       </c>
       <c r="H91" s="3">
-        <v>-32300</v>
+        <v>-31300</v>
       </c>
       <c r="I91" s="3">
-        <v>-92800</v>
+        <v>-89900</v>
       </c>
       <c r="J91" s="3">
-        <v>-158700</v>
+        <v>-153700</v>
       </c>
       <c r="K91" s="3">
         <v>-58700</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5300</v>
+        <v>-5200</v>
       </c>
       <c r="E94" s="3">
-        <v>-41000</v>
+        <v>-39700</v>
       </c>
       <c r="F94" s="3">
-        <v>-135100</v>
+        <v>-130900</v>
       </c>
       <c r="G94" s="3">
-        <v>-158100</v>
+        <v>-153100</v>
       </c>
       <c r="H94" s="3">
-        <v>-32700</v>
+        <v>-31700</v>
       </c>
       <c r="I94" s="3">
-        <v>-102900</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-147200</v>
+        <v>-99700</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10500</v>
+        <v>-10200</v>
       </c>
       <c r="E100" s="3">
-        <v>-131900</v>
+        <v>-127800</v>
       </c>
       <c r="F100" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="G100" s="3">
-        <v>44800</v>
+        <v>43400</v>
       </c>
       <c r="H100" s="3">
-        <v>-14300</v>
+        <v>-13800</v>
       </c>
       <c r="I100" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J100" s="3">
-        <v>-12900</v>
+        <v>-2300</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-13300</v>
+        <v>-12900</v>
       </c>
       <c r="E101" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="H101" s="3">
-        <v>30600</v>
+        <v>29600</v>
       </c>
       <c r="I101" s="3">
-        <v>37800</v>
-      </c>
-      <c r="J101" s="3">
-        <v>1900</v>
+        <v>36600</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22900</v>
+        <v>22200</v>
       </c>
       <c r="E102" s="3">
-        <v>-10800</v>
+        <v>-10500</v>
       </c>
       <c r="F102" s="3">
-        <v>-16600</v>
+        <v>-16100</v>
       </c>
       <c r="G102" s="3">
-        <v>65500</v>
+        <v>63500</v>
       </c>
       <c r="H102" s="3">
-        <v>-35400</v>
+        <v>-34300</v>
       </c>
       <c r="I102" s="3">
         <v>900</v>
       </c>
       <c r="J102" s="3">
-        <v>-55800</v>
+        <v>-54100</v>
       </c>
       <c r="K102" s="3">
         <v>70500</v>

--- a/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SIM_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1652900</v>
+        <v>1716100</v>
       </c>
       <c r="E8" s="3">
-        <v>1725800</v>
+        <v>1791800</v>
       </c>
       <c r="F8" s="3">
-        <v>1388200</v>
+        <v>1441300</v>
       </c>
       <c r="G8" s="3">
-        <v>1330900</v>
+        <v>1381800</v>
       </c>
       <c r="H8" s="3">
-        <v>1183900</v>
+        <v>1229200</v>
       </c>
       <c r="I8" s="3">
-        <v>1297700</v>
+        <v>1347300</v>
       </c>
       <c r="J8" s="3">
-        <v>1178700</v>
+        <v>1223800</v>
       </c>
       <c r="K8" s="3">
         <v>1328900</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1454300</v>
+        <v>1510000</v>
       </c>
       <c r="E9" s="3">
-        <v>1478300</v>
+        <v>1534900</v>
       </c>
       <c r="F9" s="3">
-        <v>1160600</v>
+        <v>1205000</v>
       </c>
       <c r="G9" s="3">
-        <v>1101700</v>
+        <v>1143800</v>
       </c>
       <c r="H9" s="3">
-        <v>1117200</v>
+        <v>1159900</v>
       </c>
       <c r="I9" s="3">
-        <v>1233100</v>
+        <v>1280200</v>
       </c>
       <c r="J9" s="3">
-        <v>1084000</v>
+        <v>1125400</v>
       </c>
       <c r="K9" s="3">
         <v>1168500</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>198500</v>
+        <v>206100</v>
       </c>
       <c r="E10" s="3">
-        <v>247400</v>
+        <v>256900</v>
       </c>
       <c r="F10" s="3">
-        <v>227600</v>
+        <v>236300</v>
       </c>
       <c r="G10" s="3">
-        <v>229300</v>
+        <v>238000</v>
       </c>
       <c r="H10" s="3">
-        <v>66700</v>
+        <v>69200</v>
       </c>
       <c r="I10" s="3">
-        <v>64600</v>
+        <v>67100</v>
       </c>
       <c r="J10" s="3">
-        <v>94700</v>
+        <v>98400</v>
       </c>
       <c r="K10" s="3">
         <v>160400</v>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100200</v>
+        <v>104100</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1540200</v>
+        <v>1599100</v>
       </c>
       <c r="E17" s="3">
-        <v>1529900</v>
+        <v>1588400</v>
       </c>
       <c r="F17" s="3">
-        <v>1220200</v>
+        <v>1266900</v>
       </c>
       <c r="G17" s="3">
-        <v>1165200</v>
+        <v>1209800</v>
       </c>
       <c r="H17" s="3">
-        <v>1285600</v>
+        <v>1334700</v>
       </c>
       <c r="I17" s="3">
-        <v>1287900</v>
+        <v>1337100</v>
       </c>
       <c r="J17" s="3">
-        <v>1140900</v>
+        <v>1184500</v>
       </c>
       <c r="K17" s="3">
         <v>1215600</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>112700</v>
+        <v>117000</v>
       </c>
       <c r="E18" s="3">
-        <v>195900</v>
+        <v>203400</v>
       </c>
       <c r="F18" s="3">
-        <v>168000</v>
+        <v>174500</v>
       </c>
       <c r="G18" s="3">
-        <v>165700</v>
+        <v>172100</v>
       </c>
       <c r="H18" s="3">
-        <v>-101700</v>
+        <v>-105600</v>
       </c>
       <c r="I18" s="3">
-        <v>9800</v>
+        <v>10200</v>
       </c>
       <c r="J18" s="3">
-        <v>37900</v>
+        <v>39300</v>
       </c>
       <c r="K18" s="3">
         <v>113300</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-30900</v>
+        <v>-32100</v>
       </c>
       <c r="E20" s="3">
-        <v>8000</v>
+        <v>8300</v>
       </c>
       <c r="F20" s="3">
-        <v>-29000</v>
+        <v>-30100</v>
       </c>
       <c r="G20" s="3">
-        <v>91100</v>
+        <v>94600</v>
       </c>
       <c r="H20" s="3">
-        <v>-16800</v>
+        <v>-17500</v>
       </c>
       <c r="I20" s="3">
-        <v>24100</v>
+        <v>25100</v>
       </c>
       <c r="J20" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="K20" s="3">
         <v>-21900</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>134800</v>
+        <v>140800</v>
       </c>
       <c r="E21" s="3">
-        <v>257100</v>
+        <v>267800</v>
       </c>
       <c r="F21" s="3">
-        <v>209100</v>
+        <v>218200</v>
       </c>
       <c r="G21" s="3">
-        <v>325100</v>
+        <v>338700</v>
       </c>
       <c r="H21" s="3">
-        <v>-58200</v>
+        <v>-59500</v>
       </c>
       <c r="I21" s="3">
-        <v>87400</v>
+        <v>91600</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
@@ -1161,19 +1161,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="E22" s="3">
         <v>800</v>
       </c>
       <c r="F22" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="G22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="H22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>79200</v>
+        <v>82200</v>
       </c>
       <c r="E23" s="3">
-        <v>203100</v>
+        <v>210900</v>
       </c>
       <c r="F23" s="3">
-        <v>136400</v>
+        <v>141600</v>
       </c>
       <c r="G23" s="3">
-        <v>254900</v>
+        <v>264600</v>
       </c>
       <c r="H23" s="3">
-        <v>-120500</v>
+        <v>-125100</v>
       </c>
       <c r="I23" s="3">
-        <v>32900</v>
+        <v>34100</v>
       </c>
       <c r="J23" s="3">
-        <v>34200</v>
+        <v>35600</v>
       </c>
       <c r="K23" s="3">
         <v>90400</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>158500</v>
+        <v>164500</v>
       </c>
       <c r="E24" s="3">
-        <v>36400</v>
+        <v>37800</v>
       </c>
       <c r="F24" s="3">
-        <v>53100</v>
+        <v>55100</v>
       </c>
       <c r="G24" s="3">
-        <v>44800</v>
+        <v>46500</v>
       </c>
       <c r="H24" s="3">
-        <v>37300</v>
+        <v>38700</v>
       </c>
       <c r="I24" s="3">
-        <v>7800</v>
+        <v>8100</v>
       </c>
       <c r="J24" s="3">
-        <v>-13600</v>
+        <v>-14100</v>
       </c>
       <c r="K24" s="3">
         <v>2400</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-79300</v>
+        <v>-82400</v>
       </c>
       <c r="E26" s="3">
-        <v>166700</v>
+        <v>173100</v>
       </c>
       <c r="F26" s="3">
-        <v>83300</v>
+        <v>86500</v>
       </c>
       <c r="G26" s="3">
-        <v>210100</v>
+        <v>218100</v>
       </c>
       <c r="H26" s="3">
-        <v>-157700</v>
+        <v>-163800</v>
       </c>
       <c r="I26" s="3">
-        <v>25100</v>
+        <v>26000</v>
       </c>
       <c r="J26" s="3">
-        <v>47900</v>
+        <v>49700</v>
       </c>
       <c r="K26" s="3">
         <v>87900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-79100</v>
+        <v>-82200</v>
       </c>
       <c r="E27" s="3">
-        <v>176700</v>
+        <v>183500</v>
       </c>
       <c r="F27" s="3">
-        <v>83300</v>
+        <v>86500</v>
       </c>
       <c r="G27" s="3">
-        <v>139500</v>
+        <v>144900</v>
       </c>
       <c r="H27" s="3">
-        <v>-58700</v>
+        <v>-61000</v>
       </c>
       <c r="I27" s="3">
-        <v>58200</v>
+        <v>60400</v>
       </c>
       <c r="J27" s="3">
-        <v>73400</v>
+        <v>76200</v>
       </c>
       <c r="K27" s="3">
         <v>93200</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>30900</v>
+        <v>32100</v>
       </c>
       <c r="E32" s="3">
-        <v>-8000</v>
+        <v>-8300</v>
       </c>
       <c r="F32" s="3">
-        <v>29000</v>
+        <v>30100</v>
       </c>
       <c r="G32" s="3">
-        <v>-91100</v>
+        <v>-94600</v>
       </c>
       <c r="H32" s="3">
-        <v>16800</v>
+        <v>17500</v>
       </c>
       <c r="I32" s="3">
-        <v>-24100</v>
+        <v>-25100</v>
       </c>
       <c r="J32" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K32" s="3">
         <v>21900</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-79100</v>
+        <v>-82200</v>
       </c>
       <c r="E33" s="3">
-        <v>176700</v>
+        <v>183500</v>
       </c>
       <c r="F33" s="3">
-        <v>83300</v>
+        <v>86500</v>
       </c>
       <c r="G33" s="3">
-        <v>139500</v>
+        <v>144900</v>
       </c>
       <c r="H33" s="3">
-        <v>-58700</v>
+        <v>-61000</v>
       </c>
       <c r="I33" s="3">
-        <v>58200</v>
+        <v>60400</v>
       </c>
       <c r="J33" s="3">
-        <v>73400</v>
+        <v>76200</v>
       </c>
       <c r="K33" s="3">
         <v>93200</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-79100</v>
+        <v>-82200</v>
       </c>
       <c r="E35" s="3">
-        <v>176700</v>
+        <v>183500</v>
       </c>
       <c r="F35" s="3">
-        <v>83300</v>
+        <v>86500</v>
       </c>
       <c r="G35" s="3">
-        <v>139500</v>
+        <v>144900</v>
       </c>
       <c r="H35" s="3">
-        <v>-58700</v>
+        <v>-61000</v>
       </c>
       <c r="I35" s="3">
-        <v>58200</v>
+        <v>60400</v>
       </c>
       <c r="J35" s="3">
-        <v>73400</v>
+        <v>76200</v>
       </c>
       <c r="K35" s="3">
         <v>93200</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>360200</v>
+        <v>374000</v>
       </c>
       <c r="E41" s="3">
-        <v>338000</v>
+        <v>350900</v>
       </c>
       <c r="F41" s="3">
-        <v>701200</v>
+        <v>728000</v>
       </c>
       <c r="G41" s="3">
-        <v>385300</v>
+        <v>400000</v>
       </c>
       <c r="H41" s="3">
-        <v>301100</v>
+        <v>312600</v>
       </c>
       <c r="I41" s="3">
-        <v>338800</v>
+        <v>351700</v>
       </c>
       <c r="J41" s="3">
-        <v>337900</v>
+        <v>350800</v>
       </c>
       <c r="K41" s="3">
         <v>365500</v>
@@ -1777,19 +1777,19 @@
         <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="F42" s="3">
-        <v>8400</v>
+        <v>8700</v>
       </c>
       <c r="G42" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H42" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="I42" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>8</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>687000</v>
+        <v>713200</v>
       </c>
       <c r="E43" s="3">
-        <v>770300</v>
+        <v>799800</v>
       </c>
       <c r="F43" s="3">
-        <v>964100</v>
+        <v>1001000</v>
       </c>
       <c r="G43" s="3">
-        <v>503900</v>
+        <v>523200</v>
       </c>
       <c r="H43" s="3">
-        <v>191100</v>
+        <v>198500</v>
       </c>
       <c r="I43" s="3">
-        <v>179100</v>
+        <v>185900</v>
       </c>
       <c r="J43" s="3">
-        <v>150000</v>
+        <v>155700</v>
       </c>
       <c r="K43" s="3">
         <v>123700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>566700</v>
+        <v>588400</v>
       </c>
       <c r="E44" s="3">
-        <v>561700</v>
+        <v>583200</v>
       </c>
       <c r="F44" s="3">
-        <v>800400</v>
+        <v>831000</v>
       </c>
       <c r="G44" s="3">
-        <v>482100</v>
+        <v>500600</v>
       </c>
       <c r="H44" s="3">
-        <v>295600</v>
+        <v>306900</v>
       </c>
       <c r="I44" s="3">
-        <v>315400</v>
+        <v>327500</v>
       </c>
       <c r="J44" s="3">
-        <v>573800</v>
+        <v>595700</v>
       </c>
       <c r="K44" s="3">
         <v>281200</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>77200</v>
+        <v>80200</v>
       </c>
       <c r="E45" s="3">
-        <v>77300</v>
+        <v>80200</v>
       </c>
       <c r="F45" s="3">
-        <v>45200</v>
+        <v>47000</v>
       </c>
       <c r="G45" s="3">
-        <v>37100</v>
+        <v>38500</v>
       </c>
       <c r="H45" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="I45" s="3">
-        <v>6800</v>
+        <v>7100</v>
       </c>
       <c r="J45" s="3">
-        <v>18000</v>
+        <v>18600</v>
       </c>
       <c r="K45" s="3">
         <v>10900</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1248300</v>
+        <v>1296100</v>
       </c>
       <c r="E46" s="3">
-        <v>1262500</v>
+        <v>1310800</v>
       </c>
       <c r="F46" s="3">
-        <v>1262900</v>
+        <v>1311200</v>
       </c>
       <c r="G46" s="3">
-        <v>1112900</v>
+        <v>1155400</v>
       </c>
       <c r="H46" s="3">
-        <v>821300</v>
+        <v>852700</v>
       </c>
       <c r="I46" s="3">
-        <v>854800</v>
+        <v>887500</v>
       </c>
       <c r="J46" s="3">
-        <v>783700</v>
+        <v>813600</v>
       </c>
       <c r="K46" s="3">
         <v>781300</v>
@@ -1954,10 +1954,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>76000</v>
+        <v>78900</v>
       </c>
       <c r="E47" s="3">
-        <v>112900</v>
+        <v>117200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1619200</v>
+        <v>1681100</v>
       </c>
       <c r="E48" s="3">
-        <v>1641800</v>
+        <v>1704500</v>
       </c>
       <c r="F48" s="3">
-        <v>1522400</v>
+        <v>1580600</v>
       </c>
       <c r="G48" s="3">
-        <v>1401900</v>
+        <v>1455500</v>
       </c>
       <c r="H48" s="3">
-        <v>538300</v>
+        <v>558900</v>
       </c>
       <c r="I48" s="3">
-        <v>658800</v>
+        <v>684000</v>
       </c>
       <c r="J48" s="3">
-        <v>99900</v>
+        <v>103800</v>
       </c>
       <c r="K48" s="3">
         <v>441000</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>225900</v>
+        <v>234500</v>
       </c>
       <c r="E49" s="3">
-        <v>222500</v>
+        <v>231000</v>
       </c>
       <c r="F49" s="3">
-        <v>239100</v>
+        <v>248200</v>
       </c>
       <c r="G49" s="3">
-        <v>246100</v>
+        <v>255500</v>
       </c>
       <c r="H49" s="3">
-        <v>128200</v>
+        <v>133100</v>
       </c>
       <c r="I49" s="3">
-        <v>138400</v>
+        <v>143700</v>
       </c>
       <c r="J49" s="3">
-        <v>305600</v>
+        <v>317300</v>
       </c>
       <c r="K49" s="3">
         <v>151300</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46500</v>
+        <v>48200</v>
       </c>
       <c r="E52" s="3">
-        <v>55500</v>
+        <v>57600</v>
       </c>
       <c r="F52" s="3">
-        <v>59000</v>
+        <v>61300</v>
       </c>
       <c r="G52" s="3">
-        <v>77200</v>
+        <v>80200</v>
       </c>
       <c r="H52" s="3">
-        <v>71900</v>
+        <v>74600</v>
       </c>
       <c r="I52" s="3">
-        <v>84300</v>
+        <v>87500</v>
       </c>
       <c r="J52" s="3">
-        <v>87500</v>
+        <v>90900</v>
       </c>
       <c r="K52" s="3">
         <v>90500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2217300</v>
+        <v>2302100</v>
       </c>
       <c r="E54" s="3">
-        <v>2363100</v>
+        <v>2453400</v>
       </c>
       <c r="F54" s="3">
-        <v>2202700</v>
+        <v>2286900</v>
       </c>
       <c r="G54" s="3">
-        <v>2014100</v>
+        <v>2091100</v>
       </c>
       <c r="H54" s="3">
-        <v>1559700</v>
+        <v>1619300</v>
       </c>
       <c r="I54" s="3">
-        <v>1736300</v>
+        <v>1802700</v>
       </c>
       <c r="J54" s="3">
-        <v>1609700</v>
+        <v>1671300</v>
       </c>
       <c r="K54" s="3">
         <v>1464100</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>202200</v>
+        <v>209900</v>
       </c>
       <c r="E57" s="3">
-        <v>212400</v>
+        <v>220500</v>
       </c>
       <c r="F57" s="3">
-        <v>458800</v>
+        <v>476300</v>
       </c>
       <c r="G57" s="3">
-        <v>136800</v>
+        <v>142000</v>
       </c>
       <c r="H57" s="3">
-        <v>150100</v>
+        <v>155800</v>
       </c>
       <c r="I57" s="3">
-        <v>176900</v>
+        <v>183600</v>
       </c>
       <c r="J57" s="3">
-        <v>145600</v>
+        <v>151100</v>
       </c>
       <c r="K57" s="3">
         <v>135000</v>
@@ -2310,10 +2310,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>12000</v>
+        <v>12400</v>
       </c>
       <c r="E58" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="F58" s="3">
         <v>300</v>
@@ -2325,10 +2325,10 @@
         <v>300</v>
       </c>
       <c r="I58" s="3">
-        <v>36400</v>
+        <v>37800</v>
       </c>
       <c r="J58" s="3">
-        <v>69100</v>
+        <v>71700</v>
       </c>
       <c r="K58" s="3">
         <v>200</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>400400</v>
+        <v>415700</v>
       </c>
       <c r="E59" s="3">
-        <v>337100</v>
+        <v>350000</v>
       </c>
       <c r="F59" s="3">
-        <v>240700</v>
+        <v>249900</v>
       </c>
       <c r="G59" s="3">
-        <v>178200</v>
+        <v>185000</v>
       </c>
       <c r="H59" s="3">
-        <v>119900</v>
+        <v>124500</v>
       </c>
       <c r="I59" s="3">
-        <v>68300</v>
+        <v>70900</v>
       </c>
       <c r="J59" s="3">
-        <v>74700</v>
+        <v>77600</v>
       </c>
       <c r="K59" s="3">
         <v>33400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>440800</v>
+        <v>457600</v>
       </c>
       <c r="E60" s="3">
-        <v>435000</v>
+        <v>451600</v>
       </c>
       <c r="F60" s="3">
-        <v>350000</v>
+        <v>363400</v>
       </c>
       <c r="G60" s="3">
-        <v>267000</v>
+        <v>277200</v>
       </c>
       <c r="H60" s="3">
-        <v>270300</v>
+        <v>280600</v>
       </c>
       <c r="I60" s="3">
-        <v>281600</v>
+        <v>292300</v>
       </c>
       <c r="J60" s="3">
-        <v>227600</v>
+        <v>236300</v>
       </c>
       <c r="K60" s="3">
         <v>168600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>227500</v>
+        <v>236200</v>
       </c>
       <c r="E62" s="3">
-        <v>247300</v>
+        <v>256700</v>
       </c>
       <c r="F62" s="3">
-        <v>236900</v>
+        <v>246000</v>
       </c>
       <c r="G62" s="3">
-        <v>165300</v>
+        <v>171600</v>
       </c>
       <c r="H62" s="3">
-        <v>74300</v>
+        <v>77100</v>
       </c>
       <c r="I62" s="3">
-        <v>111000</v>
+        <v>115300</v>
       </c>
       <c r="J62" s="3">
-        <v>111300</v>
+        <v>115500</v>
       </c>
       <c r="K62" s="3">
         <v>137700</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>641200</v>
+        <v>665700</v>
       </c>
       <c r="E66" s="3">
-        <v>629800</v>
+        <v>653900</v>
       </c>
       <c r="F66" s="3">
-        <v>546900</v>
+        <v>567800</v>
       </c>
       <c r="G66" s="3">
-        <v>402600</v>
+        <v>418000</v>
       </c>
       <c r="H66" s="3">
-        <v>274300</v>
+        <v>284800</v>
       </c>
       <c r="I66" s="3">
-        <v>428400</v>
+        <v>444800</v>
       </c>
       <c r="J66" s="3">
-        <v>403100</v>
+        <v>418500</v>
       </c>
       <c r="K66" s="3">
         <v>389800</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1109000</v>
+        <v>1151400</v>
       </c>
       <c r="E72" s="3">
-        <v>1195700</v>
+        <v>1241400</v>
       </c>
       <c r="F72" s="3">
-        <v>1088700</v>
+        <v>1130300</v>
       </c>
       <c r="G72" s="3">
-        <v>1017800</v>
+        <v>1056700</v>
       </c>
       <c r="H72" s="3">
-        <v>857400</v>
+        <v>890200</v>
       </c>
       <c r="I72" s="3">
-        <v>924300</v>
+        <v>959700</v>
       </c>
       <c r="J72" s="3">
-        <v>1625900</v>
+        <v>1688100</v>
       </c>
       <c r="K72" s="3">
         <v>751600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1576100</v>
+        <v>1636400</v>
       </c>
       <c r="E76" s="3">
-        <v>1733200</v>
+        <v>1799500</v>
       </c>
       <c r="F76" s="3">
-        <v>1655800</v>
+        <v>1719100</v>
       </c>
       <c r="G76" s="3">
-        <v>1611500</v>
+        <v>1673100</v>
       </c>
       <c r="H76" s="3">
-        <v>1285300</v>
+        <v>1334500</v>
       </c>
       <c r="I76" s="3">
-        <v>1307900</v>
+        <v>1357900</v>
       </c>
       <c r="J76" s="3">
-        <v>1206700</v>
+        <v>1252800</v>
       </c>
       <c r="K76" s="3">
         <v>1074300</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-79100</v>
+        <v>-82200</v>
       </c>
       <c r="E81" s="3">
-        <v>176700</v>
+        <v>183500</v>
       </c>
       <c r="F81" s="3">
-        <v>83300</v>
+        <v>86500</v>
       </c>
       <c r="G81" s="3">
-        <v>139500</v>
+        <v>144900</v>
       </c>
       <c r="H81" s="3">
-        <v>-58700</v>
+        <v>-61000</v>
       </c>
       <c r="I81" s="3">
-        <v>58200</v>
+        <v>60400</v>
       </c>
       <c r="J81" s="3">
-        <v>73400</v>
+        <v>76200</v>
       </c>
       <c r="K81" s="3">
         <v>93200</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>53600</v>
+        <v>55700</v>
       </c>
       <c r="E83" s="3">
-        <v>53800</v>
+        <v>55900</v>
       </c>
       <c r="F83" s="3">
-        <v>70900</v>
+        <v>73600</v>
       </c>
       <c r="G83" s="3">
-        <v>69100</v>
+        <v>71800</v>
       </c>
       <c r="H83" s="3">
-        <v>61000</v>
+        <v>63300</v>
       </c>
       <c r="I83" s="3">
-        <v>54100</v>
+        <v>56100</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>50400</v>
+        <v>52400</v>
       </c>
       <c r="E89" s="3">
-        <v>155900</v>
+        <v>161900</v>
       </c>
       <c r="F89" s="3">
-        <v>134100</v>
+        <v>139200</v>
       </c>
       <c r="G89" s="3">
-        <v>165800</v>
+        <v>172200</v>
       </c>
       <c r="H89" s="3">
-        <v>-18500</v>
+        <v>-19200</v>
       </c>
       <c r="I89" s="3">
-        <v>66300</v>
+        <v>68800</v>
       </c>
       <c r="J89" s="3">
-        <v>99200</v>
+        <v>103000</v>
       </c>
       <c r="K89" s="3">
         <v>164500</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-61500</v>
+        <v>-63900</v>
       </c>
       <c r="E91" s="3">
-        <v>-96500</v>
+        <v>-100200</v>
       </c>
       <c r="F91" s="3">
-        <v>-147000</v>
+        <v>-152600</v>
       </c>
       <c r="G91" s="3">
-        <v>-150000</v>
+        <v>-155700</v>
       </c>
       <c r="H91" s="3">
-        <v>-31300</v>
+        <v>-32500</v>
       </c>
       <c r="I91" s="3">
-        <v>-89900</v>
+        <v>-93300</v>
       </c>
       <c r="J91" s="3">
-        <v>-153700</v>
+        <v>-159600</v>
       </c>
       <c r="K91" s="3">
         <v>-58700</v>
@@ -3479,22 +3479,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5200</v>
+        <v>-5400</v>
       </c>
       <c r="E94" s="3">
-        <v>-39700</v>
+        <v>-41200</v>
       </c>
       <c r="F94" s="3">
-        <v>-130900</v>
+        <v>-135900</v>
       </c>
       <c r="G94" s="3">
-        <v>-153100</v>
+        <v>-159000</v>
       </c>
       <c r="H94" s="3">
-        <v>-31700</v>
+        <v>-32900</v>
       </c>
       <c r="I94" s="3">
-        <v>-99700</v>
+        <v>-103500</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="E100" s="3">
-        <v>-127800</v>
+        <v>-132700</v>
       </c>
       <c r="F100" s="3">
-        <v>-18100</v>
+        <v>-18800</v>
       </c>
       <c r="G100" s="3">
-        <v>43400</v>
+        <v>45100</v>
       </c>
       <c r="H100" s="3">
-        <v>-13800</v>
+        <v>-14300</v>
       </c>
       <c r="I100" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
@@ -3711,22 +3711,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-12900</v>
+        <v>-13300</v>
       </c>
       <c r="E101" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F101" s="3">
         <v>-1200</v>
       </c>
       <c r="G101" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="H101" s="3">
-        <v>29600</v>
+        <v>30800</v>
       </c>
       <c r="I101" s="3">
-        <v>36600</v>
+        <v>38000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>22200</v>
+        <v>23100</v>
       </c>
       <c r="E102" s="3">
-        <v>-10500</v>
+        <v>-10900</v>
       </c>
       <c r="F102" s="3">
-        <v>-16100</v>
+        <v>-16700</v>
       </c>
       <c r="G102" s="3">
-        <v>63500</v>
+        <v>65900</v>
       </c>
       <c r="H102" s="3">
-        <v>-34300</v>
+        <v>-35600</v>
       </c>
       <c r="I102" s="3">
         <v>900</v>
       </c>
       <c r="J102" s="3">
-        <v>-54100</v>
+        <v>-56100</v>
       </c>
       <c r="K102" s="3">
         <v>70500</v>
